--- a/issue_criteria.xlsx
+++ b/issue_criteria.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPHILLIPS03\Documents\repos\historicfloodlevels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4CB8E-768E-435C-BA99-988A5CB9D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828A227-F4CA-4988-BE3E-6DCCB9D564B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28890" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$728</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1147">
   <si>
     <t>Region</t>
   </si>
@@ -1570,6 +1573,1915 @@
   </si>
   <si>
     <t xml:space="preserve">Zoon's Court Flood Storage Area </t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>Upper Avon, River Swift &amp; Clay Coton Brook</t>
+  </si>
+  <si>
+    <t>033WAF201</t>
+  </si>
+  <si>
+    <t>Clay Coton</t>
+  </si>
+  <si>
+    <t>Lilbourne</t>
+  </si>
+  <si>
+    <t>Churchover</t>
+  </si>
+  <si>
+    <t>Clay Coton Brook at Clay Coton and Yelvertoft Brook at Yelvertoft</t>
+  </si>
+  <si>
+    <t>033FWF3CLAY001</t>
+  </si>
+  <si>
+    <t>River Avon at Stanford on Avon</t>
+  </si>
+  <si>
+    <t>033FWF3AVON001</t>
+  </si>
+  <si>
+    <t>River Avon at Rugby and Newbold on Avon</t>
+  </si>
+  <si>
+    <t>033FWF3AVON002</t>
+  </si>
+  <si>
+    <t>River Swift at Rugby</t>
+  </si>
+  <si>
+    <t>033FWF3SWIFT01</t>
+  </si>
+  <si>
+    <t>River Sowe, River Sherbourne, Canley Brook and Finham Brook</t>
+  </si>
+  <si>
+    <t>033WAF202</t>
+  </si>
+  <si>
+    <t>Blackburn Road</t>
+  </si>
+  <si>
+    <t>Hall Green Road</t>
+  </si>
+  <si>
+    <t>Holyhead Road</t>
+  </si>
+  <si>
+    <t>Hope Street</t>
+  </si>
+  <si>
+    <t>Charterhouse Bridge</t>
+  </si>
+  <si>
+    <t>Torrington Avenue</t>
+  </si>
+  <si>
+    <t>Sir Henry Parkes Road</t>
+  </si>
+  <si>
+    <t>Kenilworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenilworth Whateleys Drive </t>
+  </si>
+  <si>
+    <t>River Sowe at Bedworth</t>
+  </si>
+  <si>
+    <t>33FWF3SOWE001</t>
+  </si>
+  <si>
+    <t>River Sowe at Longford</t>
+  </si>
+  <si>
+    <t>033FWF3SOWE002</t>
+  </si>
+  <si>
+    <t>River Sowe at Manor House, Coventry</t>
+  </si>
+  <si>
+    <t>033FWF3SOWE003</t>
+  </si>
+  <si>
+    <t>River Sowe at Wyken and Stoke, Coventry</t>
+  </si>
+  <si>
+    <t>033FWF3SOWE004</t>
+  </si>
+  <si>
+    <t>River Sowe at Baginton</t>
+  </si>
+  <si>
+    <t>033FWF3SOWE005</t>
+  </si>
+  <si>
+    <t>River Sherbourne at Allesley</t>
+  </si>
+  <si>
+    <t>033FWF3SHER001</t>
+  </si>
+  <si>
+    <t>River Sherbourne at Pinley and Whitley, Coventry</t>
+  </si>
+  <si>
+    <t>033FWF3SHER003</t>
+  </si>
+  <si>
+    <t>River Sherbourne at Coventry City Centre</t>
+  </si>
+  <si>
+    <t>033FWF3SHER002</t>
+  </si>
+  <si>
+    <t>Canley Brook at Tile Hill</t>
+  </si>
+  <si>
+    <t>033FWF3CANLEY001</t>
+  </si>
+  <si>
+    <t>Canley Brook at Canley</t>
+  </si>
+  <si>
+    <t>033FWF3CANLEY002</t>
+  </si>
+  <si>
+    <t>Finham Brook at Kenilworth</t>
+  </si>
+  <si>
+    <t>033FWF3KENILWORTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanyard Stream at Kenilworth </t>
+  </si>
+  <si>
+    <t>033FWF3TANYARD</t>
+  </si>
+  <si>
+    <t>River Leam &amp; River Itchen</t>
+  </si>
+  <si>
+    <t>033WAF203</t>
+  </si>
+  <si>
+    <t>Kites Hardwick</t>
+  </si>
+  <si>
+    <t>Southam</t>
+  </si>
+  <si>
+    <t>Eathorpe</t>
+  </si>
+  <si>
+    <t>River Leam at Grandborough and Kites Hardwick</t>
+  </si>
+  <si>
+    <t>033FWF3LEAM001</t>
+  </si>
+  <si>
+    <t>River Leam at Marton</t>
+  </si>
+  <si>
+    <t>033FWF3LEAM002</t>
+  </si>
+  <si>
+    <t>River Itchen at Long Itchington</t>
+  </si>
+  <si>
+    <t>033FWF3ITCHEN</t>
+  </si>
+  <si>
+    <t>River Leam at Eathorpe, Huningham and Offchurch</t>
+  </si>
+  <si>
+    <t>033FWF3LEAM003</t>
+  </si>
+  <si>
+    <t>River Leam at Leamington A</t>
+  </si>
+  <si>
+    <t>033FWF3LEAMINGTON1</t>
+  </si>
+  <si>
+    <t>River Leam at Leamington B</t>
+  </si>
+  <si>
+    <t>033FWF3LEAMINGTON2</t>
+  </si>
+  <si>
+    <t>River Leam at Leamington C</t>
+  </si>
+  <si>
+    <t>033FWF3LEAMINGTON3</t>
+  </si>
+  <si>
+    <t>River Leam at Leamington D</t>
+  </si>
+  <si>
+    <t>033FWF3LEAMINGTON4</t>
+  </si>
+  <si>
+    <t>Middle Avon, Rugby to Bidford</t>
+  </si>
+  <si>
+    <t>033WAF204</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Stareton</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Stratford</t>
+  </si>
+  <si>
+    <t>River Avon at Little Lawford and Newnham Grounds</t>
+  </si>
+  <si>
+    <t>033FWF3AVON003</t>
+  </si>
+  <si>
+    <t>River Avon at Bretford</t>
+  </si>
+  <si>
+    <t>033FWF3AVON004</t>
+  </si>
+  <si>
+    <t>River Avon at Marston and Wolston</t>
+  </si>
+  <si>
+    <t>033FWF3AVON005</t>
+  </si>
+  <si>
+    <t>River Avon at Bubbenhall</t>
+  </si>
+  <si>
+    <t>033FWF3AVON007</t>
+  </si>
+  <si>
+    <t>River Avon at Ashow and Blackdown</t>
+  </si>
+  <si>
+    <t>033FWF3AVON008</t>
+  </si>
+  <si>
+    <t>River Avon at Guys Cliffe and Emscote</t>
+  </si>
+  <si>
+    <t>033FWF3AVON009</t>
+  </si>
+  <si>
+    <t>River Avon at Warwick</t>
+  </si>
+  <si>
+    <t>033FWF3AVON010</t>
+  </si>
+  <si>
+    <t>River Avon at Barford, Hampton Lucy, Alveston and Tiddington</t>
+  </si>
+  <si>
+    <t>033FWF3AVON011</t>
+  </si>
+  <si>
+    <t>River Avon at Stratford upon Avon</t>
+  </si>
+  <si>
+    <t>033FWF3AVON013</t>
+  </si>
+  <si>
+    <t>River Avon at Weston on Avon and Welford on Avon</t>
+  </si>
+  <si>
+    <t>033FWF3AVON014</t>
+  </si>
+  <si>
+    <t>River Avon at Barton, Bidford on Avon and Marlcliff</t>
+  </si>
+  <si>
+    <t>033FWF3AVON015</t>
+  </si>
+  <si>
+    <t>Gog Brook at Warwick</t>
+  </si>
+  <si>
+    <t>033FWF3GOG</t>
+  </si>
+  <si>
+    <t>Warwick Old 
+Budbrooke Road</t>
+  </si>
+  <si>
+    <t>Saltisford Brook at Warwick</t>
+  </si>
+  <si>
+    <t>033FWF3SALTISFORD</t>
+  </si>
+  <si>
+    <t>Warwick Wedgnock Lane</t>
+  </si>
+  <si>
+    <t>St Johns Brook at Warwick</t>
+  </si>
+  <si>
+    <t>033FWF3STJOHNS</t>
+  </si>
+  <si>
+    <t>Warwick Rothwell Road</t>
+  </si>
+  <si>
+    <t>River Arrow &amp; River Alne</t>
+  </si>
+  <si>
+    <t>033WAF205</t>
+  </si>
+  <si>
+    <t>Henley</t>
+  </si>
+  <si>
+    <t>Little Alne</t>
+  </si>
+  <si>
+    <t>Studley</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>River Arrow at Studley</t>
+  </si>
+  <si>
+    <t>033FWF3ARR001</t>
+  </si>
+  <si>
+    <t>River Arrow at Spernall</t>
+  </si>
+  <si>
+    <t>033FWF3ARR002</t>
+  </si>
+  <si>
+    <t>River Arrow at Coughton</t>
+  </si>
+  <si>
+    <t>033FWF3ARR003</t>
+  </si>
+  <si>
+    <t>River Arrow at Wixford</t>
+  </si>
+  <si>
+    <t>033FWF3ARR005</t>
+  </si>
+  <si>
+    <t>River Arrow at Broom</t>
+  </si>
+  <si>
+    <t>033FWF3ARR006</t>
+  </si>
+  <si>
+    <t>River Arrow at Salford Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3ARR007</t>
+  </si>
+  <si>
+    <t>River Arrow and River Alne at Alcester and Oversley Mill</t>
+  </si>
+  <si>
+    <t>033FWF3ALCESTER</t>
+  </si>
+  <si>
+    <t>River Alne at Bird In Hand</t>
+  </si>
+  <si>
+    <t>033FWF3ALN001</t>
+  </si>
+  <si>
+    <t>River Alne at Henley in Arden</t>
+  </si>
+  <si>
+    <t>033FWF3ALN002</t>
+  </si>
+  <si>
+    <t>River Alne at Aston Cantlow and Great Alne</t>
+  </si>
+  <si>
+    <t>033FWF3ALN003</t>
+  </si>
+  <si>
+    <t>River Alne at Wootton Wawen and Little Alne</t>
+  </si>
+  <si>
+    <t>033FWF3ALN004</t>
+  </si>
+  <si>
+    <t>River Alne at Chapel Lane and Church Lane in Aston Cantlow and Great Alne</t>
+  </si>
+  <si>
+    <t>033FWF3ALN005</t>
+  </si>
+  <si>
+    <t>River Alne at Mill House and Mill Farm in Aston Cantlow, Mill Lane in Great Alne and Hoo Mill</t>
+  </si>
+  <si>
+    <t>033FWF3ALN006</t>
+  </si>
+  <si>
+    <t>River Arrow at Washford Mill</t>
+  </si>
+  <si>
+    <t>033FWF3WASHFORD</t>
+  </si>
+  <si>
+    <t>River Dene in South East Warwickshire</t>
+  </si>
+  <si>
+    <t>033WAF206</t>
+  </si>
+  <si>
+    <t>Wellesbourne</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>River Dene at Wellesbourne</t>
+  </si>
+  <si>
+    <t>033FWF3DENE01</t>
+  </si>
+  <si>
+    <t>River Dene at Walton</t>
+  </si>
+  <si>
+    <t>033FWF3DENE02</t>
+  </si>
+  <si>
+    <t>River Stour in South Warwickshire</t>
+  </si>
+  <si>
+    <t>033WAF207</t>
+  </si>
+  <si>
+    <t>Shipston</t>
+  </si>
+  <si>
+    <t>Wimpstone</t>
+  </si>
+  <si>
+    <t>River Stour at Mitford Bridge, Shipston on Stour and Tredington</t>
+  </si>
+  <si>
+    <t>033FWF3STOUR01</t>
+  </si>
+  <si>
+    <t>River Stour from Halford to Clifford Chambers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033FWF3STOUR02</t>
+  </si>
+  <si>
+    <t>Tame</t>
+  </si>
+  <si>
+    <t>River Rea</t>
+  </si>
+  <si>
+    <t>033WAF300</t>
+  </si>
+  <si>
+    <t>Longbridge Bristol Road South</t>
+  </si>
+  <si>
+    <t>Selly Park</t>
+  </si>
+  <si>
+    <t>River Rea at Longbridge</t>
+  </si>
+  <si>
+    <t>033FWF3REA001</t>
+  </si>
+  <si>
+    <t>River Rea at Northfield</t>
+  </si>
+  <si>
+    <t>033FWF3REA002</t>
+  </si>
+  <si>
+    <t>River Rea at Kings Norton</t>
+  </si>
+  <si>
+    <t>033FWF3REA003</t>
+  </si>
+  <si>
+    <t>River Rea at Lifford</t>
+  </si>
+  <si>
+    <t>033FWF3REA004</t>
+  </si>
+  <si>
+    <t>River Rea at Breedon Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033FWF3REA005</t>
+  </si>
+  <si>
+    <t>River Rea at Stirchley</t>
+  </si>
+  <si>
+    <t>033FWF3REA006</t>
+  </si>
+  <si>
+    <t>River Rea at Calthorpe</t>
+  </si>
+  <si>
+    <t>033FWF3REA007</t>
+  </si>
+  <si>
+    <t>Calthorpe Park</t>
+  </si>
+  <si>
+    <t>River Rea at Edgbaston</t>
+  </si>
+  <si>
+    <t>033FWF3REA008</t>
+  </si>
+  <si>
+    <t>River Rea at Highgate, Deritend and Digbeth</t>
+  </si>
+  <si>
+    <t>033FWF3REA009</t>
+  </si>
+  <si>
+    <t>River Rea at Vauxhall, Saltley and Nechells</t>
+  </si>
+  <si>
+    <t>033FWF3REA010</t>
+  </si>
+  <si>
+    <t>Bourn Brook at Selly Oak</t>
+  </si>
+  <si>
+    <t>033FWF3BOURNBROOK</t>
+  </si>
+  <si>
+    <t>Lodge Hill Elford Road</t>
+  </si>
+  <si>
+    <t>Bourn at Bournville</t>
+  </si>
+  <si>
+    <t>033FWF3BOURN</t>
+  </si>
+  <si>
+    <t>Bournville Woodbrooke Road</t>
+  </si>
+  <si>
+    <t>River Cole</t>
+  </si>
+  <si>
+    <t>033WAF301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majors Green </t>
+  </si>
+  <si>
+    <t>Coleshill</t>
+  </si>
+  <si>
+    <t>Swans Barn</t>
+  </si>
+  <si>
+    <t>River Cole at Coleshill</t>
+  </si>
+  <si>
+    <t>033FWF3COLE001</t>
+  </si>
+  <si>
+    <t>River Cole at Solihull Lodge</t>
+  </si>
+  <si>
+    <t>033FWF3COLE010</t>
+  </si>
+  <si>
+    <t>Majors Green</t>
+  </si>
+  <si>
+    <t>River Cole at Sarehole, Hall Green</t>
+  </si>
+  <si>
+    <t>033FWF3COLE012</t>
+  </si>
+  <si>
+    <t>River Cole at Sparkhill</t>
+  </si>
+  <si>
+    <t>033FWF3COLE013</t>
+  </si>
+  <si>
+    <t>River Cole at Greet</t>
+  </si>
+  <si>
+    <t>033FWF3COLE014</t>
+  </si>
+  <si>
+    <t>River Cole at Hay Mills</t>
+  </si>
+  <si>
+    <t>033FWF3COLE015</t>
+  </si>
+  <si>
+    <t>River Cole at Bordesley Green East</t>
+  </si>
+  <si>
+    <t>033FWF3COLE016</t>
+  </si>
+  <si>
+    <t>River Cole at Stechford</t>
+  </si>
+  <si>
+    <t>033FWF3COLE017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Cole at Colehall </t>
+  </si>
+  <si>
+    <t>033FWF3COLE018</t>
+  </si>
+  <si>
+    <t>River Cole at Babbs Mill</t>
+  </si>
+  <si>
+    <t>033FWF3COLE019</t>
+  </si>
+  <si>
+    <t>River Cole at Woodlands, Coleshill</t>
+  </si>
+  <si>
+    <t>033FWF3COLE020</t>
+  </si>
+  <si>
+    <t>River Blythe in Warwickshire</t>
+  </si>
+  <si>
+    <t>033WAF302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheswick Green </t>
+  </si>
+  <si>
+    <t>Castle Farm</t>
+  </si>
+  <si>
+    <t>River Blythe at Cheswick Green</t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH001</t>
+  </si>
+  <si>
+    <t>River Blythe at Widney Manor, Brueton Park and Eastcote</t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH002</t>
+  </si>
+  <si>
+    <t>River Blythe at Barston, Temple Balsall and Bradnocks Marsh</t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH004</t>
+  </si>
+  <si>
+    <t>River Blythe at Molands Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH005</t>
+  </si>
+  <si>
+    <t>River Blythe at Little Packington and Dukes Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH006</t>
+  </si>
+  <si>
+    <t>River Dove and Egginton Brook at Egginton</t>
+  </si>
+  <si>
+    <t>033FWF3EARLSWOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Bythe at Blyth End </t>
+  </si>
+  <si>
+    <t>033FWF3BLYTH007</t>
+  </si>
+  <si>
+    <t>Upper Tame</t>
+  </si>
+  <si>
+    <t>033WAF303</t>
+  </si>
+  <si>
+    <t>Walsall Shelfield Millfield Avenue</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Sheepwash</t>
+  </si>
+  <si>
+    <t>River: 2.66
+Lake: ~0.5</t>
+  </si>
+  <si>
+    <t>Park Hill</t>
+  </si>
+  <si>
+    <t>Bescot</t>
+  </si>
+  <si>
+    <t>River: 3.07
+Lake: 0.00</t>
+  </si>
+  <si>
+    <t>Sandwell Woodend</t>
+  </si>
+  <si>
+    <t>Birmingham Perry Beeches</t>
+  </si>
+  <si>
+    <t>Perry Park</t>
+  </si>
+  <si>
+    <t>River: 2.58
+Lake: 0.00</t>
+  </si>
+  <si>
+    <t>Brookvale Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton Coldfield Clifton Road </t>
+  </si>
+  <si>
+    <t>Ford Brook at Rushall</t>
+  </si>
+  <si>
+    <t>033FWF3FORD03</t>
+  </si>
+  <si>
+    <t>Ford Brook at Bescot</t>
+  </si>
+  <si>
+    <t>033FWF3FORD01</t>
+  </si>
+  <si>
+    <t>Ford Brook at Walsall</t>
+  </si>
+  <si>
+    <t>033FWF3FORD02</t>
+  </si>
+  <si>
+    <t>River Tame at Horseley Heath and Great Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3TAME001</t>
+  </si>
+  <si>
+    <t>River Tame at Golds Hill</t>
+  </si>
+  <si>
+    <t>033FWF3TAME002</t>
+  </si>
+  <si>
+    <t>River Tame at Holloway Bank</t>
+  </si>
+  <si>
+    <t>033FWF3TAME003</t>
+  </si>
+  <si>
+    <t>River Tame at Wednesbury</t>
+  </si>
+  <si>
+    <t>033FWF3TAME004</t>
+  </si>
+  <si>
+    <t>River Tame at Bescot</t>
+  </si>
+  <si>
+    <t>033FWF3TAME005</t>
+  </si>
+  <si>
+    <t>River Tame at Ray Hall Water Works</t>
+  </si>
+  <si>
+    <t>033FWF3TAME006</t>
+  </si>
+  <si>
+    <t>River Tame at Hamstead</t>
+  </si>
+  <si>
+    <t>033FWF3TAME008</t>
+  </si>
+  <si>
+    <t>Perry Brook at Perry Barr</t>
+  </si>
+  <si>
+    <t>033FWF3PERRY</t>
+  </si>
+  <si>
+    <t>River Tame at Perry Barr</t>
+  </si>
+  <si>
+    <t>033FWF3TAME009</t>
+  </si>
+  <si>
+    <t>River: 3.52
+Lake: 3.52</t>
+  </si>
+  <si>
+    <t>River Tame at Witton and Salford Park</t>
+  </si>
+  <si>
+    <t>033FWF3TAME010</t>
+  </si>
+  <si>
+    <t>River Tame at Gravelly Hill</t>
+  </si>
+  <si>
+    <t>033FWF3TAME011</t>
+  </si>
+  <si>
+    <t>River Tame at Castle Vale</t>
+  </si>
+  <si>
+    <t>033FWF3TAME012</t>
+  </si>
+  <si>
+    <t>Plants Brook at Sutton Coldfield</t>
+  </si>
+  <si>
+    <t>033FWF3PLANTS</t>
+  </si>
+  <si>
+    <t>Upper Tame at Sandwell Valley</t>
+  </si>
+  <si>
+    <t>033WAF340</t>
+  </si>
+  <si>
+    <t>Forge Mill Reservoir</t>
+  </si>
+  <si>
+    <t>River Tame at Sandwell Valley and Forge Mill Farm</t>
+  </si>
+  <si>
+    <t>033FWF3TAME007</t>
+  </si>
+  <si>
+    <t>Middle Tame</t>
+  </si>
+  <si>
+    <t>033WAF304</t>
+  </si>
+  <si>
+    <t>Water Orton</t>
+  </si>
+  <si>
+    <t>Lea Marston</t>
+  </si>
+  <si>
+    <t>Tamworth</t>
+  </si>
+  <si>
+    <t>River Tame at Water Orton</t>
+  </si>
+  <si>
+    <t>033FWF3TAME013</t>
+  </si>
+  <si>
+    <t>River Tame at Hams Hall</t>
+  </si>
+  <si>
+    <t>033FWF3TAME014</t>
+  </si>
+  <si>
+    <t>River Tame at Whitacre and Nether Whitacre</t>
+  </si>
+  <si>
+    <t>033FWF3TAME015</t>
+  </si>
+  <si>
+    <t>River Tame at Marston, Kingsbury and Cliff</t>
+  </si>
+  <si>
+    <t>033FWF3TAME016</t>
+  </si>
+  <si>
+    <t>River Tame and Bourne Brook at Fazeley</t>
+  </si>
+  <si>
+    <t>033FWF3TAME017</t>
+  </si>
+  <si>
+    <t>River Tame at Kettlebrook</t>
+  </si>
+  <si>
+    <t>033FWF3TAME018</t>
+  </si>
+  <si>
+    <t>River Tame at County Drive and Bitterscote</t>
+  </si>
+  <si>
+    <t>033FWF3TAME019</t>
+  </si>
+  <si>
+    <t>River Tame at Ventura Park</t>
+  </si>
+  <si>
+    <t>033FWF3TAME020</t>
+  </si>
+  <si>
+    <t>Snowdome Tamworth</t>
+  </si>
+  <si>
+    <t>033OPNSDOME</t>
+  </si>
+  <si>
+    <t>Whitemoor Lakes and Activity Centre</t>
+  </si>
+  <si>
+    <t>033OPNWHITEMOOR</t>
+  </si>
+  <si>
+    <t>Bourne Brook (Tamworth)</t>
+  </si>
+  <si>
+    <t>033WAF305</t>
+  </si>
+  <si>
+    <t>Hints</t>
+  </si>
+  <si>
+    <t>Bourne Brook at Hints and Drayton Manor Park</t>
+  </si>
+  <si>
+    <t>033FWF3BOURNB01</t>
+  </si>
+  <si>
+    <t>Lower Tame</t>
+  </si>
+  <si>
+    <t>033WAF306</t>
+  </si>
+  <si>
+    <t>Hopwas Bridge</t>
+  </si>
+  <si>
+    <t>River Tame at Lichfield Road Tamworth</t>
+  </si>
+  <si>
+    <t>033FWF3TAME021</t>
+  </si>
+  <si>
+    <t>River Tame at Comberford</t>
+  </si>
+  <si>
+    <t>033FWF3TAME022</t>
+  </si>
+  <si>
+    <t>River Tame at Elford</t>
+  </si>
+  <si>
+    <t>033FWF3TAME023</t>
+  </si>
+  <si>
+    <t>River Tame at Croxall</t>
+  </si>
+  <si>
+    <t>033FWF3TAME024</t>
+  </si>
+  <si>
+    <t>River Anker
+And River Sence</t>
+  </si>
+  <si>
+    <t>033WAF307</t>
+  </si>
+  <si>
+    <t>Nuneaton</t>
+  </si>
+  <si>
+    <t>Mancetter</t>
+  </si>
+  <si>
+    <t>Temple Mill</t>
+  </si>
+  <si>
+    <t>Polesworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Anker at Horeston Grange and Attleborough, Nuneaton  </t>
+  </si>
+  <si>
+    <t>033FWF3ANKR001</t>
+  </si>
+  <si>
+    <t>River Anker at Nuneaton Town Centre</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR003</t>
+  </si>
+  <si>
+    <t>River Anker at Weddington</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR002</t>
+  </si>
+  <si>
+    <t>River Anker at Leather Mill</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR004</t>
+  </si>
+  <si>
+    <t>River Anker at Mancetter, Witherley and Atherstone</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR005</t>
+  </si>
+  <si>
+    <t>River Anker at Grendon and Bradley Green</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR006</t>
+  </si>
+  <si>
+    <t>River Sence from Temple Mill to Sheepy Magna</t>
+  </si>
+  <si>
+    <t>033FWF3SENCE001</t>
+  </si>
+  <si>
+    <t>River Anker at Polesworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">033FWF3ANKR007
+</t>
+  </si>
+  <si>
+    <t>River Anker at Amington, Tamworth</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR008</t>
+  </si>
+  <si>
+    <t>River Anker at Tamworth Town Centre</t>
+  </si>
+  <si>
+    <t>033FWF3ANKR009</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>River Mease</t>
+  </si>
+  <si>
+    <t>033WAF308</t>
+  </si>
+  <si>
+    <t>Packington</t>
+  </si>
+  <si>
+    <t>033WAF309</t>
+  </si>
+  <si>
+    <t>Clifton Hall</t>
+  </si>
+  <si>
+    <t>Gilwiskaw Brook at Packington</t>
+  </si>
+  <si>
+    <t>033FWF3MEASE01</t>
+  </si>
+  <si>
+    <t>River Mease at Measham and Netherseal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033FWF3MEASE02</t>
+  </si>
+  <si>
+    <t>River Mease at Clifton Campville, Harlaston and Croxall</t>
+  </si>
+  <si>
+    <t>033FWF3MEASE03</t>
+  </si>
+  <si>
+    <t>Stoke Trent</t>
+  </si>
+  <si>
+    <t>Knypersley</t>
+  </si>
+  <si>
+    <t>Brindley Ford</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Liverpool Road</t>
+  </si>
+  <si>
+    <t>Hanford Bridge</t>
+  </si>
+  <si>
+    <t>Newcastle under Lyme</t>
+  </si>
+  <si>
+    <t>Lower Milehouse Lane</t>
+  </si>
+  <si>
+    <t>River Trent at Norton Green</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT01</t>
+  </si>
+  <si>
+    <t>River Trent at Abbey Hulton and Bucknall</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT03</t>
+  </si>
+  <si>
+    <t>Ford Green Brook at Fegg Hayes, Bradeley and Sneyd Green</t>
+  </si>
+  <si>
+    <t>033FWF3FGREEN01</t>
+  </si>
+  <si>
+    <t>River Trent at Stoke on Trent</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT04</t>
+  </si>
+  <si>
+    <t>Fowlea Brook at Stoke-on-Trent</t>
+  </si>
+  <si>
+    <t>033FWF3FOWLEA01</t>
+  </si>
+  <si>
+    <t>River Trent at Hanford and Trentham</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT05</t>
+  </si>
+  <si>
+    <t>Lyme Brook at Newcastle under Lyme and Trent Vale</t>
+  </si>
+  <si>
+    <t>033FWF3LYME01</t>
+  </si>
+  <si>
+    <t>Ashfield Brook at Newcastle-Under-Lyme</t>
+  </si>
+  <si>
+    <t>033FWF3ASHFIELD</t>
+  </si>
+  <si>
+    <t>Stone Trent</t>
+  </si>
+  <si>
+    <t>033WAF310</t>
+  </si>
+  <si>
+    <t>Darlaston</t>
+  </si>
+  <si>
+    <t>River Trent at Stone</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT07</t>
+  </si>
+  <si>
+    <t>River Trent at Enson, Sandon, Salt and Weston</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT08</t>
+  </si>
+  <si>
+    <t>Rugeley Trent</t>
+  </si>
+  <si>
+    <t>033WAF311</t>
+  </si>
+  <si>
+    <t>Great Haywood</t>
+  </si>
+  <si>
+    <t>River Trent at Great Haywood Little Haywood and Colwich</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT09</t>
+  </si>
+  <si>
+    <t>River Trent at Rugeley</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT10</t>
+  </si>
+  <si>
+    <t>River Trent at Hill Ridware, Pipe Ridware and Mavesyn Ridware</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT11</t>
+  </si>
+  <si>
+    <t>River Sow and River Penk</t>
+  </si>
+  <si>
+    <t>033WAF312</t>
+  </si>
+  <si>
+    <t>Shallowford</t>
+  </si>
+  <si>
+    <t>Great Bridgeford</t>
+  </si>
+  <si>
+    <t>Astonfields</t>
+  </si>
+  <si>
+    <t>Cannock</t>
+  </si>
+  <si>
+    <t>Deepmore Farm</t>
+  </si>
+  <si>
+    <t>Coven</t>
+  </si>
+  <si>
+    <t>Penkridge</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Milford</t>
+  </si>
+  <si>
+    <t>Churchbridge Hall Lane</t>
+  </si>
+  <si>
+    <t>Bushbury Wychall Drive</t>
+  </si>
+  <si>
+    <t>River Sow St. Thomas Area</t>
+  </si>
+  <si>
+    <t>033FWF3SOW002</t>
+  </si>
+  <si>
+    <t>River Sow Tixall Area</t>
+  </si>
+  <si>
+    <t>033FWF3SOW003</t>
+  </si>
+  <si>
+    <t>Broadeye Bridge</t>
+  </si>
+  <si>
+    <t>River Sow at Stafford</t>
+  </si>
+  <si>
+    <t>033FWF3STAFFSOW</t>
+  </si>
+  <si>
+    <t>Sandyford Brook at Sandon Road, Stafford</t>
+  </si>
+  <si>
+    <t>033FWF3SAND001</t>
+  </si>
+  <si>
+    <t>Ridings Brook at Rumer Hill, Cannock</t>
+  </si>
+  <si>
+    <t>033FWF3RID001</t>
+  </si>
+  <si>
+    <t>033FWF3RID002</t>
+  </si>
+  <si>
+    <t>Saredon Brook at Wedges Mills, Cannock</t>
+  </si>
+  <si>
+    <t>033FWF3SARE001</t>
+  </si>
+  <si>
+    <t>Saredon Brook at Standeford near Coven</t>
+  </si>
+  <si>
+    <t>033FWF3SARE002</t>
+  </si>
+  <si>
+    <t>River Penk at Coven</t>
+  </si>
+  <si>
+    <t>033FWF3PENK001</t>
+  </si>
+  <si>
+    <t>River Penk at Somerford</t>
+  </si>
+  <si>
+    <t>033FWF3PENK003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Penk at Congreve and Water Eaton  </t>
+  </si>
+  <si>
+    <t>033FWF3PENK004</t>
+  </si>
+  <si>
+    <t>River Penk at Penkridge</t>
+  </si>
+  <si>
+    <t>033FWF3PENK005</t>
+  </si>
+  <si>
+    <t>River Penk at Acton Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3PENK007</t>
+  </si>
+  <si>
+    <t>River Penk at Stafford</t>
+  </si>
+  <si>
+    <t>033FWF3STAFFPENK</t>
+  </si>
+  <si>
+    <t>Rising Brook, Stafford</t>
+  </si>
+  <si>
+    <t>033FWF3RISE001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wash Brook &amp; Wyrley Brook a Churchbridge </t>
+  </si>
+  <si>
+    <t>033FWF3WYRLEY</t>
+  </si>
+  <si>
+    <t>Waterhead Brook at Bushbury, Wolverhampton</t>
+  </si>
+  <si>
+    <t>033FWF3WATERHEAD</t>
+  </si>
+  <si>
+    <t>River Blithe and River Swarbourne</t>
+  </si>
+  <si>
+    <t>033WAF313</t>
+  </si>
+  <si>
+    <t>Blythe Bridge</t>
+  </si>
+  <si>
+    <t>Cresswell</t>
+  </si>
+  <si>
+    <t>Hamstall Ridware</t>
+  </si>
+  <si>
+    <t>Hoar Cross</t>
+  </si>
+  <si>
+    <t>River Blithe at Blythe Bridge</t>
+  </si>
+  <si>
+    <t>033FWF3BLITHE01</t>
+  </si>
+  <si>
+    <t>River Blithe at Blythe Park Industrial Estate, Cresswell</t>
+  </si>
+  <si>
+    <t>033FWF3BLITHE02</t>
+  </si>
+  <si>
+    <t>River Blithe from Leigh Crossing to Dapple Heath</t>
+  </si>
+  <si>
+    <t>033FWF3BLITHE03</t>
+  </si>
+  <si>
+    <t>River Blithe from Blithfield Reservoir To Bancroft</t>
+  </si>
+  <si>
+    <t>033FWF3BLITHE04</t>
+  </si>
+  <si>
+    <t>River Swarbourn at Woodlane Bridge, Yoxall</t>
+  </si>
+  <si>
+    <t>033FWF3SWARB01</t>
+  </si>
+  <si>
+    <t>River Swarbourn at Yoxall</t>
+  </si>
+  <si>
+    <t>033FWF3SWARB02</t>
+  </si>
+  <si>
+    <t>Burton Trent</t>
+  </si>
+  <si>
+    <t>033WAF314</t>
+  </si>
+  <si>
+    <t>Yoxall</t>
+  </si>
+  <si>
+    <t>Croxall</t>
+  </si>
+  <si>
+    <t>Drakelow</t>
+  </si>
+  <si>
+    <t>River Trent at Handsacre, Nethertown and Kings Bromley</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT12</t>
+  </si>
+  <si>
+    <t>River Trent at Alrewas and Wychnor</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT13</t>
+  </si>
+  <si>
+    <t>River Trent at Catton, Barton under Needwood and Branston Water Park</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT14</t>
+  </si>
+  <si>
+    <t>River Trent at Burton Upon Trent</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT15</t>
+  </si>
+  <si>
+    <t>River Trent at Riverside areas of Burton Upon Trent</t>
+  </si>
+  <si>
+    <t>033FWF3TRENT16</t>
+  </si>
+  <si>
+    <t>River Stour and Smestow Brook</t>
+  </si>
+  <si>
+    <t>033WAF330</t>
+  </si>
+  <si>
+    <t>Wightwick</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Halesowen Manor Road</t>
+  </si>
+  <si>
+    <t>Halesowen Dogkennel Lane</t>
+  </si>
+  <si>
+    <t>Halesowen</t>
+  </si>
+  <si>
+    <t>Stourbridge</t>
+  </si>
+  <si>
+    <t>Prestwood</t>
+  </si>
+  <si>
+    <t>Smestow Brook at Wightwick</t>
+  </si>
+  <si>
+    <t>033FWF3SMES01</t>
+  </si>
+  <si>
+    <t>Smestow Brook at Seisdon &amp; Woodford Grange</t>
+  </si>
+  <si>
+    <t>033FWF3SMES02</t>
+  </si>
+  <si>
+    <t>Smestow Brook at Hinksford</t>
+  </si>
+  <si>
+    <t>033FWF3SMES03</t>
+  </si>
+  <si>
+    <t>Illey Brook at Halesowen</t>
+  </si>
+  <si>
+    <t>033FWF3ILLEY</t>
+  </si>
+  <si>
+    <t>Lutley Gutter at Halesowen</t>
+  </si>
+  <si>
+    <t>033FWF3LUTLEY</t>
+  </si>
+  <si>
+    <t>River Stour at Halesowen</t>
+  </si>
+  <si>
+    <t>033FWF3HALESOWEN</t>
+  </si>
+  <si>
+    <t>River Stour at Cradley Heath</t>
+  </si>
+  <si>
+    <t>033WFWF3CRADLEY</t>
+  </si>
+  <si>
+    <t>River Stour at Stambermill</t>
+  </si>
+  <si>
+    <t>033FWF3STAMBERMILL</t>
+  </si>
+  <si>
+    <t>River Stour at Stourbridge</t>
+  </si>
+  <si>
+    <t>033FWF3STOURBRIDGE</t>
+  </si>
+  <si>
+    <t>River Stour at Kinver</t>
+  </si>
+  <si>
+    <t>033FWF3KINVER</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Upper Dove</t>
+  </si>
+  <si>
+    <t>033WAF315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izaak Walton </t>
+  </si>
+  <si>
+    <t>Ilam</t>
+  </si>
+  <si>
+    <t>Agnes Meadow Bridge</t>
+  </si>
+  <si>
+    <t>Ashbourne</t>
+  </si>
+  <si>
+    <t>Mayfield</t>
+  </si>
+  <si>
+    <t>River Dove from Coldwall Bridge to Okeover</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE001</t>
+  </si>
+  <si>
+    <t>River Dove at Hangingbridge and Church Mayfield</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE002</t>
+  </si>
+  <si>
+    <t>Henmore Brook at Ashbourne</t>
+  </si>
+  <si>
+    <t>033FWF3ASHBOURNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Dove at Norbury and Lower Ellastone </t>
+  </si>
+  <si>
+    <t>033FWF3DOVE003</t>
+  </si>
+  <si>
+    <t>River Hamps and River Manifold</t>
+  </si>
+  <si>
+    <t>033WAF316</t>
+  </si>
+  <si>
+    <t>Waterhouses</t>
+  </si>
+  <si>
+    <t>River Hamps at Waterhouses</t>
+  </si>
+  <si>
+    <t>033FWF3HAMPS001</t>
+  </si>
+  <si>
+    <t>River Churnet and River Tean</t>
+  </si>
+  <si>
+    <t>033WAF317</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Wallgrange</t>
+  </si>
+  <si>
+    <t>Flint Mill/Cheddleton</t>
+  </si>
+  <si>
+    <t>Basford Bridge</t>
+  </si>
+  <si>
+    <t>Froghall</t>
+  </si>
+  <si>
+    <t>Quixhill</t>
+  </si>
+  <si>
+    <t>Cheadle</t>
+  </si>
+  <si>
+    <t>Adderley</t>
+  </si>
+  <si>
+    <t>Upper Tean</t>
+  </si>
+  <si>
+    <t>Leasows Farm</t>
+  </si>
+  <si>
+    <t>River Churnet at Leek</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR001</t>
+  </si>
+  <si>
+    <t>River Churnet at Leekbrook</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR008</t>
+  </si>
+  <si>
+    <t>River Churnet at Barnfields</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR009</t>
+  </si>
+  <si>
+    <t>Endon Brook at Denford</t>
+  </si>
+  <si>
+    <t>033FWF3ENDON001</t>
+  </si>
+  <si>
+    <t>River Churnet at Cheddleton</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR002</t>
+  </si>
+  <si>
+    <t>River Churnet at Froghall including Consall Forge</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR003</t>
+  </si>
+  <si>
+    <t>River Churnet at Oakamoor</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR004</t>
+  </si>
+  <si>
+    <t>River Churnet at Alton</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR005</t>
+  </si>
+  <si>
+    <t>River Churnet at Quixhill</t>
+  </si>
+  <si>
+    <t>033FWF3CHUR006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Churnet at Rocester </t>
+  </si>
+  <si>
+    <t>033FWF3CHUR007</t>
+  </si>
+  <si>
+    <t>Cecily Brook at Cheadle</t>
+  </si>
+  <si>
+    <t>033FWF3CECL01</t>
+  </si>
+  <si>
+    <t>River Tean at Adderley</t>
+  </si>
+  <si>
+    <t>033FWF3TEAN005</t>
+  </si>
+  <si>
+    <t>River Tean at Brookhouses</t>
+  </si>
+  <si>
+    <t>033FWF3TEAN006</t>
+  </si>
+  <si>
+    <t>River Tean at Upper Tean, Lower Tean and Checkley</t>
+  </si>
+  <si>
+    <t>033FWF3TEAN001</t>
+  </si>
+  <si>
+    <t>River Tean at Fole and Beamhurst</t>
+  </si>
+  <si>
+    <t>033FWF3TEAN002</t>
+  </si>
+  <si>
+    <t>River Tean at Spath Area</t>
+  </si>
+  <si>
+    <t>033FWF3TEAN003</t>
+  </si>
+  <si>
+    <t>Uttoxeter Derby Road</t>
+  </si>
+  <si>
+    <t>033FWF3UTTOX002</t>
+  </si>
+  <si>
+    <t>Lower Dove</t>
+  </si>
+  <si>
+    <t>033WAF318</t>
+  </si>
+  <si>
+    <t>Rocester Dove</t>
+  </si>
+  <si>
+    <t>Doveridge</t>
+  </si>
+  <si>
+    <t>Aston Bridge</t>
+  </si>
+  <si>
+    <t>Hatton</t>
+  </si>
+  <si>
+    <t>Marston on Dove</t>
+  </si>
+  <si>
+    <t>River Dove at Rocester</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE004</t>
+  </si>
+  <si>
+    <t>Dovefields Industrial Estate area, Uttoxeter</t>
+  </si>
+  <si>
+    <t>River Dove at Doveridge and Sudbury</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE012</t>
+  </si>
+  <si>
+    <t>River Dove at Dovefields Crossing and Saltbrook Cottage</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE014</t>
+  </si>
+  <si>
+    <t>River Dove at Green Lane and Saltbrook Meadow Farm</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE015</t>
+  </si>
+  <si>
+    <t>River Dove at Scropton</t>
+  </si>
+  <si>
+    <t>033FWF3SCROPTON</t>
+  </si>
+  <si>
+    <t>River Dove at Hatton</t>
+  </si>
+  <si>
+    <t>033FWF3HATTON</t>
+  </si>
+  <si>
+    <t>River Dove at Fauld Cottage Farm and Cornill Lane</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE011</t>
+  </si>
+  <si>
+    <t>River Dove at Fauld Lane and Tutbury</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE013</t>
+  </si>
+  <si>
+    <t>River Dove at Marston on Dove</t>
+  </si>
+  <si>
+    <t>033FWF3DOVE008</t>
+  </si>
+  <si>
+    <t>033FWF3EGGINTON</t>
+  </si>
+  <si>
+    <t>Rolleston Brook and River Dove at Rolleston</t>
+  </si>
+  <si>
+    <t>033FWF3ROLLESTON</t>
+  </si>
+  <si>
+    <t>Lower Dove Brooks in Derbyshire</t>
+  </si>
+  <si>
+    <t>033WAF319</t>
+  </si>
+  <si>
+    <t>Horsebottom</t>
+  </si>
+  <si>
+    <t>Sutton Mill</t>
+  </si>
+  <si>
+    <t>Egginton River</t>
+  </si>
+  <si>
+    <t>Foston Brook at Foston</t>
+  </si>
+  <si>
+    <t>033FWF3FOST001</t>
+  </si>
+  <si>
+    <t>Hilton Brook at Sutton on the Hill and Uttoxeter Road, Hilton</t>
+  </si>
+  <si>
+    <t>033FWF3HILT001</t>
+  </si>
+  <si>
+    <t>Hilton Brook at Hilton</t>
+  </si>
+  <si>
+    <t>033FWF3HILT002</t>
+  </si>
+  <si>
+    <t>Etwall Brook at Etwall</t>
+  </si>
+  <si>
+    <t>033FWF3ETWALL</t>
+  </si>
+  <si>
+    <t>Lower Dove Brooks in Staffordshire</t>
+  </si>
+  <si>
+    <t>033WAF320</t>
+  </si>
+  <si>
+    <t>Uttoxeter Park</t>
+  </si>
+  <si>
+    <t>Marchington</t>
+  </si>
+  <si>
+    <t>Anslow</t>
+  </si>
+  <si>
+    <t>Picknall Brook at Uttoxeter</t>
+  </si>
+  <si>
+    <t>033FWF3UTTOX001</t>
+  </si>
+  <si>
+    <t>Marchington Brook at Marchington</t>
+  </si>
+  <si>
+    <t>033FWF3MART001</t>
   </si>
 </sst>
 </file>
@@ -1890,13 +3802,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F353"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="C728" sqref="C728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2295,7 +4211,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +4231,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +4251,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +4271,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2375,7 +4291,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2392,7 +4308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +4408,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5749,7 +7665,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -8071,7 +9987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -8091,7 +10007,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -8111,7 +10027,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -8131,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -8925,7 +10841,7310 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>513</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>514</v>
+      </c>
+      <c r="D354" t="s">
+        <v>515</v>
+      </c>
+      <c r="E354" t="s">
+        <v>516</v>
+      </c>
+      <c r="F354">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>513</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>514</v>
+      </c>
+      <c r="D355" t="s">
+        <v>515</v>
+      </c>
+      <c r="E355" t="s">
+        <v>517</v>
+      </c>
+      <c r="F355">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>513</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>514</v>
+      </c>
+      <c r="D356" t="s">
+        <v>515</v>
+      </c>
+      <c r="E356" t="s">
+        <v>518</v>
+      </c>
+      <c r="F356">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>513</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>519</v>
+      </c>
+      <c r="D357" t="s">
+        <v>520</v>
+      </c>
+      <c r="E357" t="s">
+        <v>516</v>
+      </c>
+      <c r="F357">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>513</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>521</v>
+      </c>
+      <c r="D358" t="s">
+        <v>522</v>
+      </c>
+      <c r="E358" t="s">
+        <v>517</v>
+      </c>
+      <c r="F358">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>513</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>523</v>
+      </c>
+      <c r="D359" t="s">
+        <v>524</v>
+      </c>
+      <c r="E359" t="s">
+        <v>517</v>
+      </c>
+      <c r="F359">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>513</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>525</v>
+      </c>
+      <c r="D360" t="s">
+        <v>526</v>
+      </c>
+      <c r="E360" t="s">
+        <v>518</v>
+      </c>
+      <c r="F360">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>513</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>527</v>
+      </c>
+      <c r="D361" t="s">
+        <v>528</v>
+      </c>
+      <c r="E361" t="s">
+        <v>529</v>
+      </c>
+      <c r="F361">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>513</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>527</v>
+      </c>
+      <c r="D362" t="s">
+        <v>528</v>
+      </c>
+      <c r="E362" t="s">
+        <v>530</v>
+      </c>
+      <c r="F362">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>513</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>527</v>
+      </c>
+      <c r="D363" t="s">
+        <v>528</v>
+      </c>
+      <c r="E363" t="s">
+        <v>531</v>
+      </c>
+      <c r="F363">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>513</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>527</v>
+      </c>
+      <c r="D364" t="s">
+        <v>528</v>
+      </c>
+      <c r="E364" t="s">
+        <v>532</v>
+      </c>
+      <c r="F364">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>513</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>527</v>
+      </c>
+      <c r="D365" t="s">
+        <v>528</v>
+      </c>
+      <c r="E365" t="s">
+        <v>533</v>
+      </c>
+      <c r="F365">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>513</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>527</v>
+      </c>
+      <c r="D366" t="s">
+        <v>528</v>
+      </c>
+      <c r="E366" t="s">
+        <v>534</v>
+      </c>
+      <c r="F366">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>513</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>527</v>
+      </c>
+      <c r="D367" t="s">
+        <v>528</v>
+      </c>
+      <c r="E367" t="s">
+        <v>535</v>
+      </c>
+      <c r="F367">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>513</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>527</v>
+      </c>
+      <c r="D368" t="s">
+        <v>528</v>
+      </c>
+      <c r="E368" t="s">
+        <v>536</v>
+      </c>
+      <c r="F368">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>513</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>527</v>
+      </c>
+      <c r="D369" t="s">
+        <v>528</v>
+      </c>
+      <c r="E369" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>513</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>538</v>
+      </c>
+      <c r="D370" t="s">
+        <v>539</v>
+      </c>
+      <c r="E370" t="s">
+        <v>529</v>
+      </c>
+      <c r="F370">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>513</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" t="s">
+        <v>540</v>
+      </c>
+      <c r="D371" t="s">
+        <v>541</v>
+      </c>
+      <c r="E371" t="s">
+        <v>529</v>
+      </c>
+      <c r="F371">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>513</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" t="s">
+        <v>542</v>
+      </c>
+      <c r="D372" t="s">
+        <v>543</v>
+      </c>
+      <c r="E372" t="s">
+        <v>530</v>
+      </c>
+      <c r="F372">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>513</v>
+      </c>
+      <c r="B373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" t="s">
+        <v>544</v>
+      </c>
+      <c r="D373" t="s">
+        <v>545</v>
+      </c>
+      <c r="E373" t="s">
+        <v>530</v>
+      </c>
+      <c r="F373">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>513</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" t="s">
+        <v>546</v>
+      </c>
+      <c r="D374" t="s">
+        <v>547</v>
+      </c>
+      <c r="E374" t="s">
+        <v>530</v>
+      </c>
+      <c r="F374">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>513</v>
+      </c>
+      <c r="B375" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" t="s">
+        <v>548</v>
+      </c>
+      <c r="D375" t="s">
+        <v>549</v>
+      </c>
+      <c r="E375" t="s">
+        <v>531</v>
+      </c>
+      <c r="F375">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>513</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" t="s">
+        <v>548</v>
+      </c>
+      <c r="D376" t="s">
+        <v>549</v>
+      </c>
+      <c r="E376" t="s">
+        <v>532</v>
+      </c>
+      <c r="F376">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>513</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377" t="s">
+        <v>550</v>
+      </c>
+      <c r="D377" t="s">
+        <v>551</v>
+      </c>
+      <c r="E377" t="s">
+        <v>532</v>
+      </c>
+      <c r="F377">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>513</v>
+      </c>
+      <c r="B378" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378" t="s">
+        <v>552</v>
+      </c>
+      <c r="D378" t="s">
+        <v>553</v>
+      </c>
+      <c r="E378" t="s">
+        <v>533</v>
+      </c>
+      <c r="F378">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>513</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" t="s">
+        <v>554</v>
+      </c>
+      <c r="D379" t="s">
+        <v>555</v>
+      </c>
+      <c r="E379" t="s">
+        <v>534</v>
+      </c>
+      <c r="F379">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>513</v>
+      </c>
+      <c r="B380" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s">
+        <v>556</v>
+      </c>
+      <c r="D380" t="s">
+        <v>557</v>
+      </c>
+      <c r="E380" t="s">
+        <v>535</v>
+      </c>
+      <c r="F380">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>513</v>
+      </c>
+      <c r="B381" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" t="s">
+        <v>558</v>
+      </c>
+      <c r="D381" t="s">
+        <v>559</v>
+      </c>
+      <c r="E381" t="s">
+        <v>536</v>
+      </c>
+      <c r="F381">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>513</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="s">
+        <v>560</v>
+      </c>
+      <c r="D382" t="s">
+        <v>561</v>
+      </c>
+      <c r="E382" t="s">
+        <v>537</v>
+      </c>
+      <c r="F382">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>513</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>562</v>
+      </c>
+      <c r="D383" t="s">
+        <v>563</v>
+      </c>
+      <c r="E383" t="s">
+        <v>564</v>
+      </c>
+      <c r="F383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>513</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>562</v>
+      </c>
+      <c r="D384" t="s">
+        <v>563</v>
+      </c>
+      <c r="E384" t="s">
+        <v>565</v>
+      </c>
+      <c r="F384">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>513</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>562</v>
+      </c>
+      <c r="D385" t="s">
+        <v>563</v>
+      </c>
+      <c r="E385" t="s">
+        <v>566</v>
+      </c>
+      <c r="F385">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>513</v>
+      </c>
+      <c r="B386" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386" t="s">
+        <v>567</v>
+      </c>
+      <c r="D386" t="s">
+        <v>568</v>
+      </c>
+      <c r="E386" t="s">
+        <v>564</v>
+      </c>
+      <c r="F386">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>513</v>
+      </c>
+      <c r="B387" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387" t="s">
+        <v>569</v>
+      </c>
+      <c r="D387" t="s">
+        <v>570</v>
+      </c>
+      <c r="E387" t="s">
+        <v>564</v>
+      </c>
+      <c r="F387">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>513</v>
+      </c>
+      <c r="B388" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388" t="s">
+        <v>571</v>
+      </c>
+      <c r="D388" t="s">
+        <v>572</v>
+      </c>
+      <c r="E388" t="s">
+        <v>565</v>
+      </c>
+      <c r="F388">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>513</v>
+      </c>
+      <c r="B389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389" t="s">
+        <v>573</v>
+      </c>
+      <c r="D389" t="s">
+        <v>574</v>
+      </c>
+      <c r="E389" t="s">
+        <v>566</v>
+      </c>
+      <c r="F389">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>513</v>
+      </c>
+      <c r="B390" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390" t="s">
+        <v>575</v>
+      </c>
+      <c r="D390" t="s">
+        <v>576</v>
+      </c>
+      <c r="E390" t="s">
+        <v>566</v>
+      </c>
+      <c r="F390">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>513</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" t="s">
+        <v>577</v>
+      </c>
+      <c r="D391" t="s">
+        <v>578</v>
+      </c>
+      <c r="E391" t="s">
+        <v>566</v>
+      </c>
+      <c r="F391">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>513</v>
+      </c>
+      <c r="B392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" t="s">
+        <v>579</v>
+      </c>
+      <c r="D392" t="s">
+        <v>580</v>
+      </c>
+      <c r="E392" t="s">
+        <v>566</v>
+      </c>
+      <c r="F392">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>513</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s">
+        <v>581</v>
+      </c>
+      <c r="D393" t="s">
+        <v>582</v>
+      </c>
+      <c r="E393" t="s">
+        <v>566</v>
+      </c>
+      <c r="F393">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>513</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>583</v>
+      </c>
+      <c r="D394" t="s">
+        <v>584</v>
+      </c>
+      <c r="E394" t="s">
+        <v>585</v>
+      </c>
+      <c r="F394">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>513</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>583</v>
+      </c>
+      <c r="D395" t="s">
+        <v>584</v>
+      </c>
+      <c r="E395" t="s">
+        <v>586</v>
+      </c>
+      <c r="F395">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>513</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>583</v>
+      </c>
+      <c r="D396" t="s">
+        <v>584</v>
+      </c>
+      <c r="E396" t="s">
+        <v>587</v>
+      </c>
+      <c r="F396">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>513</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>583</v>
+      </c>
+      <c r="D397" t="s">
+        <v>584</v>
+      </c>
+      <c r="E397" t="s">
+        <v>588</v>
+      </c>
+      <c r="F397">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>513</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>583</v>
+      </c>
+      <c r="D398" t="s">
+        <v>584</v>
+      </c>
+      <c r="E398" t="s">
+        <v>57</v>
+      </c>
+      <c r="F398">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>513</v>
+      </c>
+      <c r="B399" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" t="s">
+        <v>589</v>
+      </c>
+      <c r="D399" t="s">
+        <v>590</v>
+      </c>
+      <c r="E399" t="s">
+        <v>585</v>
+      </c>
+      <c r="F399">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>513</v>
+      </c>
+      <c r="B400" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" t="s">
+        <v>591</v>
+      </c>
+      <c r="D400" t="s">
+        <v>592</v>
+      </c>
+      <c r="E400" t="s">
+        <v>585</v>
+      </c>
+      <c r="F400">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>513</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" t="s">
+        <v>593</v>
+      </c>
+      <c r="D401" t="s">
+        <v>594</v>
+      </c>
+      <c r="E401" t="s">
+        <v>585</v>
+      </c>
+      <c r="F401">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>513</v>
+      </c>
+      <c r="B402" t="s">
+        <v>11</v>
+      </c>
+      <c r="C402" t="s">
+        <v>595</v>
+      </c>
+      <c r="D402" t="s">
+        <v>596</v>
+      </c>
+      <c r="E402" t="s">
+        <v>585</v>
+      </c>
+      <c r="F402">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>513</v>
+      </c>
+      <c r="B403" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" t="s">
+        <v>597</v>
+      </c>
+      <c r="D403" t="s">
+        <v>598</v>
+      </c>
+      <c r="E403" t="s">
+        <v>586</v>
+      </c>
+      <c r="F403">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>513</v>
+      </c>
+      <c r="B404" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" t="s">
+        <v>599</v>
+      </c>
+      <c r="D404" t="s">
+        <v>600</v>
+      </c>
+      <c r="E404" t="s">
+        <v>586</v>
+      </c>
+      <c r="F404">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>513</v>
+      </c>
+      <c r="B405" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" t="s">
+        <v>601</v>
+      </c>
+      <c r="D405" t="s">
+        <v>602</v>
+      </c>
+      <c r="E405" t="s">
+        <v>587</v>
+      </c>
+      <c r="F405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>513</v>
+      </c>
+      <c r="B406" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" t="s">
+        <v>603</v>
+      </c>
+      <c r="D406" t="s">
+        <v>604</v>
+      </c>
+      <c r="E406" t="s">
+        <v>587</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>513</v>
+      </c>
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" t="s">
+        <v>605</v>
+      </c>
+      <c r="D407" t="s">
+        <v>606</v>
+      </c>
+      <c r="E407" t="s">
+        <v>588</v>
+      </c>
+      <c r="F407">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>513</v>
+      </c>
+      <c r="B408" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" t="s">
+        <v>607</v>
+      </c>
+      <c r="D408" t="s">
+        <v>608</v>
+      </c>
+      <c r="E408" t="s">
+        <v>588</v>
+      </c>
+      <c r="F408">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>513</v>
+      </c>
+      <c r="B409" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409" t="s">
+        <v>607</v>
+      </c>
+      <c r="D409" t="s">
+        <v>608</v>
+      </c>
+      <c r="E409" t="s">
+        <v>57</v>
+      </c>
+      <c r="F409">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>513</v>
+      </c>
+      <c r="B410" t="s">
+        <v>11</v>
+      </c>
+      <c r="C410" t="s">
+        <v>609</v>
+      </c>
+      <c r="D410" t="s">
+        <v>610</v>
+      </c>
+      <c r="E410" t="s">
+        <v>57</v>
+      </c>
+      <c r="F410">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>513</v>
+      </c>
+      <c r="B411" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411" t="s">
+        <v>611</v>
+      </c>
+      <c r="D411" t="s">
+        <v>612</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>513</v>
+      </c>
+      <c r="B412" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>614</v>
+      </c>
+      <c r="D412" t="s">
+        <v>615</v>
+      </c>
+      <c r="E412" t="s">
+        <v>616</v>
+      </c>
+      <c r="F412">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>513</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>617</v>
+      </c>
+      <c r="D413" t="s">
+        <v>618</v>
+      </c>
+      <c r="E413" t="s">
+        <v>619</v>
+      </c>
+      <c r="F413">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>513</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>620</v>
+      </c>
+      <c r="D414" t="s">
+        <v>621</v>
+      </c>
+      <c r="E414" t="s">
+        <v>622</v>
+      </c>
+      <c r="F414">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>513</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>620</v>
+      </c>
+      <c r="D415" t="s">
+        <v>621</v>
+      </c>
+      <c r="E415" t="s">
+        <v>623</v>
+      </c>
+      <c r="F415">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>513</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>620</v>
+      </c>
+      <c r="D416" t="s">
+        <v>621</v>
+      </c>
+      <c r="E416" t="s">
+        <v>624</v>
+      </c>
+      <c r="F416">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>513</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>620</v>
+      </c>
+      <c r="D417" t="s">
+        <v>621</v>
+      </c>
+      <c r="E417" t="s">
+        <v>625</v>
+      </c>
+      <c r="F417">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>513</v>
+      </c>
+      <c r="B418" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" t="s">
+        <v>626</v>
+      </c>
+      <c r="D418" t="s">
+        <v>627</v>
+      </c>
+      <c r="E418" t="s">
+        <v>624</v>
+      </c>
+      <c r="F418">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>513</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" t="s">
+        <v>628</v>
+      </c>
+      <c r="D419" t="s">
+        <v>629</v>
+      </c>
+      <c r="E419" t="s">
+        <v>624</v>
+      </c>
+      <c r="F419">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>513</v>
+      </c>
+      <c r="B420" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" t="s">
+        <v>630</v>
+      </c>
+      <c r="D420" t="s">
+        <v>631</v>
+      </c>
+      <c r="E420" t="s">
+        <v>624</v>
+      </c>
+      <c r="F420">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>513</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" t="s">
+        <v>632</v>
+      </c>
+      <c r="D421" t="s">
+        <v>633</v>
+      </c>
+      <c r="E421" t="s">
+        <v>625</v>
+      </c>
+      <c r="F421">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>513</v>
+      </c>
+      <c r="B422" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" t="s">
+        <v>634</v>
+      </c>
+      <c r="D422" t="s">
+        <v>635</v>
+      </c>
+      <c r="E422" t="s">
+        <v>625</v>
+      </c>
+      <c r="F422">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>513</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>636</v>
+      </c>
+      <c r="D423" t="s">
+        <v>637</v>
+      </c>
+      <c r="E423" t="s">
+        <v>625</v>
+      </c>
+      <c r="F423">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>513</v>
+      </c>
+      <c r="B424" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>638</v>
+      </c>
+      <c r="D424" t="s">
+        <v>639</v>
+      </c>
+      <c r="E424" t="s">
+        <v>623</v>
+      </c>
+      <c r="F424">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>513</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="s">
+        <v>638</v>
+      </c>
+      <c r="D425" t="s">
+        <v>639</v>
+      </c>
+      <c r="E425" t="s">
+        <v>624</v>
+      </c>
+      <c r="F425">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>513</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s">
+        <v>640</v>
+      </c>
+      <c r="D426" t="s">
+        <v>641</v>
+      </c>
+      <c r="E426" t="s">
+        <v>622</v>
+      </c>
+      <c r="F426">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>513</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>642</v>
+      </c>
+      <c r="D427" t="s">
+        <v>643</v>
+      </c>
+      <c r="E427" t="s">
+        <v>622</v>
+      </c>
+      <c r="F427">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>513</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>644</v>
+      </c>
+      <c r="D428" t="s">
+        <v>645</v>
+      </c>
+      <c r="E428" t="s">
+        <v>622</v>
+      </c>
+      <c r="F428">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>513</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>646</v>
+      </c>
+      <c r="D429" t="s">
+        <v>647</v>
+      </c>
+      <c r="E429" t="s">
+        <v>622</v>
+      </c>
+      <c r="F429">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>513</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>648</v>
+      </c>
+      <c r="D430" t="s">
+        <v>649</v>
+      </c>
+      <c r="E430" t="s">
+        <v>623</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>513</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>650</v>
+      </c>
+      <c r="D431" t="s">
+        <v>651</v>
+      </c>
+      <c r="E431" t="s">
+        <v>623</v>
+      </c>
+      <c r="F431">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>513</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>652</v>
+      </c>
+      <c r="D432" t="s">
+        <v>653</v>
+      </c>
+      <c r="E432" t="s">
+        <v>624</v>
+      </c>
+      <c r="F432">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>513</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>654</v>
+      </c>
+      <c r="D433" t="s">
+        <v>655</v>
+      </c>
+      <c r="E433" t="s">
+        <v>656</v>
+      </c>
+      <c r="F433">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>513</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>654</v>
+      </c>
+      <c r="D434" t="s">
+        <v>655</v>
+      </c>
+      <c r="E434" t="s">
+        <v>657</v>
+      </c>
+      <c r="F434">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>513</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>658</v>
+      </c>
+      <c r="D435" t="s">
+        <v>659</v>
+      </c>
+      <c r="E435" t="s">
+        <v>657</v>
+      </c>
+      <c r="F435">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>513</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>658</v>
+      </c>
+      <c r="D436" t="s">
+        <v>659</v>
+      </c>
+      <c r="E436" t="s">
+        <v>656</v>
+      </c>
+      <c r="F436">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>513</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>660</v>
+      </c>
+      <c r="D437" t="s">
+        <v>661</v>
+      </c>
+      <c r="E437" t="s">
+        <v>657</v>
+      </c>
+      <c r="F437">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>513</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>662</v>
+      </c>
+      <c r="D438" t="s">
+        <v>663</v>
+      </c>
+      <c r="E438" t="s">
+        <v>664</v>
+      </c>
+      <c r="F438">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>513</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>662</v>
+      </c>
+      <c r="D439" t="s">
+        <v>663</v>
+      </c>
+      <c r="E439" t="s">
+        <v>665</v>
+      </c>
+      <c r="F439">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>513</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>666</v>
+      </c>
+      <c r="D440" t="s">
+        <v>667</v>
+      </c>
+      <c r="E440" t="s">
+        <v>664</v>
+      </c>
+      <c r="F440">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>513</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>668</v>
+      </c>
+      <c r="D441" t="s">
+        <v>669</v>
+      </c>
+      <c r="E441" t="s">
+        <v>664</v>
+      </c>
+      <c r="F441">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>513</v>
+      </c>
+      <c r="B442" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>668</v>
+      </c>
+      <c r="D442" t="s">
+        <v>669</v>
+      </c>
+      <c r="E442" t="s">
+        <v>665</v>
+      </c>
+      <c r="F442">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>670</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>671</v>
+      </c>
+      <c r="D443" t="s">
+        <v>672</v>
+      </c>
+      <c r="E443" t="s">
+        <v>673</v>
+      </c>
+      <c r="F443">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>670</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>671</v>
+      </c>
+      <c r="D444" t="s">
+        <v>672</v>
+      </c>
+      <c r="E444" t="s">
+        <v>674</v>
+      </c>
+      <c r="F444">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>670</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>675</v>
+      </c>
+      <c r="D445" t="s">
+        <v>676</v>
+      </c>
+      <c r="E445" t="s">
+        <v>673</v>
+      </c>
+      <c r="F445">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>670</v>
+      </c>
+      <c r="B446" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" t="s">
+        <v>677</v>
+      </c>
+      <c r="D446" t="s">
+        <v>678</v>
+      </c>
+      <c r="E446" t="s">
+        <v>673</v>
+      </c>
+      <c r="F446">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>670</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>679</v>
+      </c>
+      <c r="D447" t="s">
+        <v>680</v>
+      </c>
+      <c r="E447" t="s">
+        <v>673</v>
+      </c>
+      <c r="F447">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>670</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>681</v>
+      </c>
+      <c r="D448" t="s">
+        <v>682</v>
+      </c>
+      <c r="E448" t="s">
+        <v>673</v>
+      </c>
+      <c r="F448">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>670</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>683</v>
+      </c>
+      <c r="D449" t="s">
+        <v>684</v>
+      </c>
+      <c r="E449" t="s">
+        <v>673</v>
+      </c>
+      <c r="F449">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>670</v>
+      </c>
+      <c r="B450" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>685</v>
+      </c>
+      <c r="D450" t="s">
+        <v>686</v>
+      </c>
+      <c r="E450" t="s">
+        <v>673</v>
+      </c>
+      <c r="F450">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>670</v>
+      </c>
+      <c r="B451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" t="s">
+        <v>687</v>
+      </c>
+      <c r="D451" t="s">
+        <v>688</v>
+      </c>
+      <c r="E451" t="s">
+        <v>689</v>
+      </c>
+      <c r="F451">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>670</v>
+      </c>
+      <c r="B452" t="s">
+        <v>11</v>
+      </c>
+      <c r="C452" t="s">
+        <v>685</v>
+      </c>
+      <c r="D452" t="s">
+        <v>686</v>
+      </c>
+      <c r="E452" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>670</v>
+      </c>
+      <c r="B453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" t="s">
+        <v>690</v>
+      </c>
+      <c r="D453" t="s">
+        <v>691</v>
+      </c>
+      <c r="E453" t="s">
+        <v>674</v>
+      </c>
+      <c r="F453">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>670</v>
+      </c>
+      <c r="B454" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" t="s">
+        <v>692</v>
+      </c>
+      <c r="D454" t="s">
+        <v>693</v>
+      </c>
+      <c r="E454" t="s">
+        <v>689</v>
+      </c>
+      <c r="F454">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>670</v>
+      </c>
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455" t="s">
+        <v>694</v>
+      </c>
+      <c r="D455" t="s">
+        <v>695</v>
+      </c>
+      <c r="E455" t="s">
+        <v>689</v>
+      </c>
+      <c r="F455">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>670</v>
+      </c>
+      <c r="B456" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456" t="s">
+        <v>696</v>
+      </c>
+      <c r="D456" t="s">
+        <v>697</v>
+      </c>
+      <c r="E456" t="s">
+        <v>698</v>
+      </c>
+      <c r="F456">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>670</v>
+      </c>
+      <c r="B457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457" t="s">
+        <v>699</v>
+      </c>
+      <c r="D457" t="s">
+        <v>700</v>
+      </c>
+      <c r="E457" t="s">
+        <v>701</v>
+      </c>
+      <c r="F457">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>670</v>
+      </c>
+      <c r="B458" t="s">
+        <v>7</v>
+      </c>
+      <c r="C458" t="s">
+        <v>702</v>
+      </c>
+      <c r="D458" t="s">
+        <v>703</v>
+      </c>
+      <c r="E458" t="s">
+        <v>704</v>
+      </c>
+      <c r="F458">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>670</v>
+      </c>
+      <c r="B459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C459" t="s">
+        <v>702</v>
+      </c>
+      <c r="D459" t="s">
+        <v>703</v>
+      </c>
+      <c r="E459" t="s">
+        <v>705</v>
+      </c>
+      <c r="F459">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>670</v>
+      </c>
+      <c r="B460" t="s">
+        <v>7</v>
+      </c>
+      <c r="C460" t="s">
+        <v>702</v>
+      </c>
+      <c r="D460" t="s">
+        <v>703</v>
+      </c>
+      <c r="E460" t="s">
+        <v>706</v>
+      </c>
+      <c r="F460">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>670</v>
+      </c>
+      <c r="B461" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461" t="s">
+        <v>707</v>
+      </c>
+      <c r="D461" t="s">
+        <v>708</v>
+      </c>
+      <c r="E461" t="s">
+        <v>706</v>
+      </c>
+      <c r="F461">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>670</v>
+      </c>
+      <c r="B462" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462" t="s">
+        <v>709</v>
+      </c>
+      <c r="D462" t="s">
+        <v>710</v>
+      </c>
+      <c r="E462" t="s">
+        <v>711</v>
+      </c>
+      <c r="F462">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>670</v>
+      </c>
+      <c r="B463" t="s">
+        <v>11</v>
+      </c>
+      <c r="C463" t="s">
+        <v>712</v>
+      </c>
+      <c r="D463" t="s">
+        <v>713</v>
+      </c>
+      <c r="E463" t="s">
+        <v>711</v>
+      </c>
+      <c r="F463">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>670</v>
+      </c>
+      <c r="B464" t="s">
+        <v>11</v>
+      </c>
+      <c r="C464" t="s">
+        <v>714</v>
+      </c>
+      <c r="D464" t="s">
+        <v>715</v>
+      </c>
+      <c r="E464" t="s">
+        <v>711</v>
+      </c>
+      <c r="F464">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>670</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+      <c r="C465" t="s">
+        <v>716</v>
+      </c>
+      <c r="D465" t="s">
+        <v>717</v>
+      </c>
+      <c r="E465" t="s">
+        <v>711</v>
+      </c>
+      <c r="F465">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>670</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466" t="s">
+        <v>718</v>
+      </c>
+      <c r="D466" t="s">
+        <v>719</v>
+      </c>
+      <c r="E466" t="s">
+        <v>711</v>
+      </c>
+      <c r="F466">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>670</v>
+      </c>
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467" t="s">
+        <v>720</v>
+      </c>
+      <c r="D467" t="s">
+        <v>721</v>
+      </c>
+      <c r="E467" t="s">
+        <v>711</v>
+      </c>
+      <c r="F467">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>670</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468" t="s">
+        <v>722</v>
+      </c>
+      <c r="D468" t="s">
+        <v>723</v>
+      </c>
+      <c r="E468" t="s">
+        <v>711</v>
+      </c>
+      <c r="F468">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>670</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" t="s">
+        <v>724</v>
+      </c>
+      <c r="D469" t="s">
+        <v>725</v>
+      </c>
+      <c r="E469" t="s">
+        <v>711</v>
+      </c>
+      <c r="F469">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>670</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" t="s">
+        <v>726</v>
+      </c>
+      <c r="D470" t="s">
+        <v>727</v>
+      </c>
+      <c r="E470" t="s">
+        <v>711</v>
+      </c>
+      <c r="F470">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>670</v>
+      </c>
+      <c r="B471" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" t="s">
+        <v>728</v>
+      </c>
+      <c r="D471" t="s">
+        <v>729</v>
+      </c>
+      <c r="E471" t="s">
+        <v>705</v>
+      </c>
+      <c r="F471">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>670</v>
+      </c>
+      <c r="B472" t="s">
+        <v>7</v>
+      </c>
+      <c r="C472" t="s">
+        <v>730</v>
+      </c>
+      <c r="D472" t="s">
+        <v>731</v>
+      </c>
+      <c r="E472" t="s">
+        <v>732</v>
+      </c>
+      <c r="F472">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>670</v>
+      </c>
+      <c r="B473" t="s">
+        <v>7</v>
+      </c>
+      <c r="C473" t="s">
+        <v>730</v>
+      </c>
+      <c r="D473" t="s">
+        <v>731</v>
+      </c>
+      <c r="E473" t="s">
+        <v>733</v>
+      </c>
+      <c r="F473">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>670</v>
+      </c>
+      <c r="B474" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" t="s">
+        <v>734</v>
+      </c>
+      <c r="D474" t="s">
+        <v>735</v>
+      </c>
+      <c r="E474" t="s">
+        <v>732</v>
+      </c>
+      <c r="F474">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>670</v>
+      </c>
+      <c r="B475" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" t="s">
+        <v>736</v>
+      </c>
+      <c r="D475" t="s">
+        <v>737</v>
+      </c>
+      <c r="E475" t="s">
+        <v>732</v>
+      </c>
+      <c r="F475">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>670</v>
+      </c>
+      <c r="B476" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476" t="s">
+        <v>738</v>
+      </c>
+      <c r="D476" t="s">
+        <v>739</v>
+      </c>
+      <c r="E476" t="s">
+        <v>732</v>
+      </c>
+      <c r="F476">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>670</v>
+      </c>
+      <c r="B477" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477" t="s">
+        <v>740</v>
+      </c>
+      <c r="D477" t="s">
+        <v>741</v>
+      </c>
+      <c r="E477" t="s">
+        <v>732</v>
+      </c>
+      <c r="F477">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>670</v>
+      </c>
+      <c r="B478" t="s">
+        <v>11</v>
+      </c>
+      <c r="C478" t="s">
+        <v>742</v>
+      </c>
+      <c r="D478" t="s">
+        <v>743</v>
+      </c>
+      <c r="E478" t="s">
+        <v>732</v>
+      </c>
+      <c r="F478">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>670</v>
+      </c>
+      <c r="B479" t="s">
+        <v>11</v>
+      </c>
+      <c r="C479" t="s">
+        <v>744</v>
+      </c>
+      <c r="D479" t="s">
+        <v>745</v>
+      </c>
+      <c r="E479" t="s">
+        <v>732</v>
+      </c>
+      <c r="F479">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>670</v>
+      </c>
+      <c r="B480" t="s">
+        <v>11</v>
+      </c>
+      <c r="C480" t="s">
+        <v>746</v>
+      </c>
+      <c r="D480" t="s">
+        <v>747</v>
+      </c>
+      <c r="E480" t="s">
+        <v>733</v>
+      </c>
+      <c r="F480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>670</v>
+      </c>
+      <c r="B481" t="s">
+        <v>7</v>
+      </c>
+      <c r="C481" t="s">
+        <v>748</v>
+      </c>
+      <c r="D481" t="s">
+        <v>749</v>
+      </c>
+      <c r="E481" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>670</v>
+      </c>
+      <c r="B482" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482" t="s">
+        <v>748</v>
+      </c>
+      <c r="D482" t="s">
+        <v>749</v>
+      </c>
+      <c r="E482" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>670</v>
+      </c>
+      <c r="B483" t="s">
+        <v>7</v>
+      </c>
+      <c r="C483" t="s">
+        <v>748</v>
+      </c>
+      <c r="D483" t="s">
+        <v>749</v>
+      </c>
+      <c r="E483" t="s">
+        <v>752</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>670</v>
+      </c>
+      <c r="B484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484" t="s">
+        <v>748</v>
+      </c>
+      <c r="D484" t="s">
+        <v>749</v>
+      </c>
+      <c r="E484" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>670</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C485" t="s">
+        <v>748</v>
+      </c>
+      <c r="D485" t="s">
+        <v>749</v>
+      </c>
+      <c r="E485" t="s">
+        <v>755</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>670</v>
+      </c>
+      <c r="B486" t="s">
+        <v>7</v>
+      </c>
+      <c r="C486" t="s">
+        <v>748</v>
+      </c>
+      <c r="D486" t="s">
+        <v>749</v>
+      </c>
+      <c r="E486" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>670</v>
+      </c>
+      <c r="B487" t="s">
+        <v>7</v>
+      </c>
+      <c r="C487" t="s">
+        <v>748</v>
+      </c>
+      <c r="D487" t="s">
+        <v>749</v>
+      </c>
+      <c r="E487" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>670</v>
+      </c>
+      <c r="B488" t="s">
+        <v>7</v>
+      </c>
+      <c r="C488" t="s">
+        <v>748</v>
+      </c>
+      <c r="D488" t="s">
+        <v>749</v>
+      </c>
+      <c r="E488" t="s">
+        <v>759</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>670</v>
+      </c>
+      <c r="B489" t="s">
+        <v>7</v>
+      </c>
+      <c r="C489" t="s">
+        <v>748</v>
+      </c>
+      <c r="D489" t="s">
+        <v>749</v>
+      </c>
+      <c r="E489" t="s">
+        <v>761</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>670</v>
+      </c>
+      <c r="B490" t="s">
+        <v>7</v>
+      </c>
+      <c r="C490" t="s">
+        <v>748</v>
+      </c>
+      <c r="D490" t="s">
+        <v>749</v>
+      </c>
+      <c r="E490" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>670</v>
+      </c>
+      <c r="B491" t="s">
+        <v>11</v>
+      </c>
+      <c r="C491" t="s">
+        <v>763</v>
+      </c>
+      <c r="D491" t="s">
+        <v>764</v>
+      </c>
+      <c r="E491" t="s">
+        <v>750</v>
+      </c>
+      <c r="F491">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>670</v>
+      </c>
+      <c r="B492" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" t="s">
+        <v>765</v>
+      </c>
+      <c r="D492" t="s">
+        <v>766</v>
+      </c>
+      <c r="E492" t="s">
+        <v>751</v>
+      </c>
+      <c r="F492">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>670</v>
+      </c>
+      <c r="B493" t="s">
+        <v>11</v>
+      </c>
+      <c r="C493" t="s">
+        <v>767</v>
+      </c>
+      <c r="D493" t="s">
+        <v>768</v>
+      </c>
+      <c r="E493" t="s">
+        <v>751</v>
+      </c>
+      <c r="F493">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>670</v>
+      </c>
+      <c r="B494" t="s">
+        <v>11</v>
+      </c>
+      <c r="C494" t="s">
+        <v>769</v>
+      </c>
+      <c r="D494" t="s">
+        <v>770</v>
+      </c>
+      <c r="E494" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>670</v>
+      </c>
+      <c r="B495" t="s">
+        <v>11</v>
+      </c>
+      <c r="C495" t="s">
+        <v>771</v>
+      </c>
+      <c r="D495" t="s">
+        <v>772</v>
+      </c>
+      <c r="E495" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>670</v>
+      </c>
+      <c r="B496" t="s">
+        <v>11</v>
+      </c>
+      <c r="C496" t="s">
+        <v>773</v>
+      </c>
+      <c r="D496" t="s">
+        <v>774</v>
+      </c>
+      <c r="E496" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>670</v>
+      </c>
+      <c r="B497" t="s">
+        <v>11</v>
+      </c>
+      <c r="C497" t="s">
+        <v>775</v>
+      </c>
+      <c r="D497" t="s">
+        <v>776</v>
+      </c>
+      <c r="E497" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>670</v>
+      </c>
+      <c r="B498" t="s">
+        <v>11</v>
+      </c>
+      <c r="C498" t="s">
+        <v>775</v>
+      </c>
+      <c r="D498" t="s">
+        <v>776</v>
+      </c>
+      <c r="E498" t="s">
+        <v>754</v>
+      </c>
+      <c r="F498">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>670</v>
+      </c>
+      <c r="B499" t="s">
+        <v>11</v>
+      </c>
+      <c r="C499" t="s">
+        <v>777</v>
+      </c>
+      <c r="D499" t="s">
+        <v>778</v>
+      </c>
+      <c r="E499" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>670</v>
+      </c>
+      <c r="B500" t="s">
+        <v>11</v>
+      </c>
+      <c r="C500" t="s">
+        <v>779</v>
+      </c>
+      <c r="D500" t="s">
+        <v>780</v>
+      </c>
+      <c r="E500" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>670</v>
+      </c>
+      <c r="B501" t="s">
+        <v>11</v>
+      </c>
+      <c r="C501" t="s">
+        <v>781</v>
+      </c>
+      <c r="D501" t="s">
+        <v>782</v>
+      </c>
+      <c r="E501" t="s">
+        <v>757</v>
+      </c>
+      <c r="F501">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>670</v>
+      </c>
+      <c r="B502" t="s">
+        <v>11</v>
+      </c>
+      <c r="C502" t="s">
+        <v>783</v>
+      </c>
+      <c r="D502" t="s">
+        <v>784</v>
+      </c>
+      <c r="E502" t="s">
+        <v>758</v>
+      </c>
+      <c r="F502">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>670</v>
+      </c>
+      <c r="B503" t="s">
+        <v>11</v>
+      </c>
+      <c r="C503" t="s">
+        <v>785</v>
+      </c>
+      <c r="D503" t="s">
+        <v>786</v>
+      </c>
+      <c r="E503" t="s">
+        <v>759</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>670</v>
+      </c>
+      <c r="B504" t="s">
+        <v>11</v>
+      </c>
+      <c r="C504" t="s">
+        <v>788</v>
+      </c>
+      <c r="D504" t="s">
+        <v>789</v>
+      </c>
+      <c r="E504" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>670</v>
+      </c>
+      <c r="B505" t="s">
+        <v>11</v>
+      </c>
+      <c r="C505" t="s">
+        <v>788</v>
+      </c>
+      <c r="D505" t="s">
+        <v>789</v>
+      </c>
+      <c r="E505" t="s">
+        <v>761</v>
+      </c>
+      <c r="F505">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>670</v>
+      </c>
+      <c r="B506" t="s">
+        <v>11</v>
+      </c>
+      <c r="C506" t="s">
+        <v>790</v>
+      </c>
+      <c r="D506" t="s">
+        <v>791</v>
+      </c>
+      <c r="E506" t="s">
+        <v>761</v>
+      </c>
+      <c r="F506">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>670</v>
+      </c>
+      <c r="B507" t="s">
+        <v>11</v>
+      </c>
+      <c r="C507" t="s">
+        <v>792</v>
+      </c>
+      <c r="D507" t="s">
+        <v>793</v>
+      </c>
+      <c r="E507" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>670</v>
+      </c>
+      <c r="B508" t="s">
+        <v>11</v>
+      </c>
+      <c r="C508" t="s">
+        <v>794</v>
+      </c>
+      <c r="D508" t="s">
+        <v>795</v>
+      </c>
+      <c r="E508" t="s">
+        <v>762</v>
+      </c>
+      <c r="F508">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>670</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" t="s">
+        <v>796</v>
+      </c>
+      <c r="D509" t="s">
+        <v>797</v>
+      </c>
+      <c r="E509" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>670</v>
+      </c>
+      <c r="B510" t="s">
+        <v>11</v>
+      </c>
+      <c r="C510" t="s">
+        <v>799</v>
+      </c>
+      <c r="D510" t="s">
+        <v>800</v>
+      </c>
+      <c r="E510" t="s">
+        <v>798</v>
+      </c>
+      <c r="F510">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>670</v>
+      </c>
+      <c r="B511" t="s">
+        <v>11</v>
+      </c>
+      <c r="C511" t="s">
+        <v>781</v>
+      </c>
+      <c r="D511" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>670</v>
+      </c>
+      <c r="B512" t="s">
+        <v>7</v>
+      </c>
+      <c r="C512" t="s">
+        <v>801</v>
+      </c>
+      <c r="D512" t="s">
+        <v>802</v>
+      </c>
+      <c r="E512" t="s">
+        <v>803</v>
+      </c>
+      <c r="F512">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>670</v>
+      </c>
+      <c r="B513" t="s">
+        <v>7</v>
+      </c>
+      <c r="C513" t="s">
+        <v>801</v>
+      </c>
+      <c r="D513" t="s">
+        <v>802</v>
+      </c>
+      <c r="E513" t="s">
+        <v>804</v>
+      </c>
+      <c r="F513">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>670</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+      <c r="C514" t="s">
+        <v>801</v>
+      </c>
+      <c r="D514" t="s">
+        <v>802</v>
+      </c>
+      <c r="E514" t="s">
+        <v>805</v>
+      </c>
+      <c r="F514">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>670</v>
+      </c>
+      <c r="B515" t="s">
+        <v>11</v>
+      </c>
+      <c r="C515" t="s">
+        <v>806</v>
+      </c>
+      <c r="D515" t="s">
+        <v>807</v>
+      </c>
+      <c r="E515" t="s">
+        <v>803</v>
+      </c>
+      <c r="F515">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>670</v>
+      </c>
+      <c r="B516" t="s">
+        <v>11</v>
+      </c>
+      <c r="C516" t="s">
+        <v>808</v>
+      </c>
+      <c r="D516" t="s">
+        <v>809</v>
+      </c>
+      <c r="E516" t="s">
+        <v>803</v>
+      </c>
+      <c r="F516">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>670</v>
+      </c>
+      <c r="B517" t="s">
+        <v>11</v>
+      </c>
+      <c r="C517" t="s">
+        <v>810</v>
+      </c>
+      <c r="D517" t="s">
+        <v>811</v>
+      </c>
+      <c r="E517" t="s">
+        <v>803</v>
+      </c>
+      <c r="F517">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>670</v>
+      </c>
+      <c r="B518" t="s">
+        <v>11</v>
+      </c>
+      <c r="C518" t="s">
+        <v>810</v>
+      </c>
+      <c r="D518" t="s">
+        <v>811</v>
+      </c>
+      <c r="E518" t="s">
+        <v>804</v>
+      </c>
+      <c r="F518">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>670</v>
+      </c>
+      <c r="B519" t="s">
+        <v>11</v>
+      </c>
+      <c r="C519" t="s">
+        <v>812</v>
+      </c>
+      <c r="D519" t="s">
+        <v>813</v>
+      </c>
+      <c r="E519" t="s">
+        <v>804</v>
+      </c>
+      <c r="F519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>670</v>
+      </c>
+      <c r="B520" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520" t="s">
+        <v>814</v>
+      </c>
+      <c r="D520" t="s">
+        <v>815</v>
+      </c>
+      <c r="E520" t="s">
+        <v>805</v>
+      </c>
+      <c r="F520">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>670</v>
+      </c>
+      <c r="B521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521" t="s">
+        <v>816</v>
+      </c>
+      <c r="D521" t="s">
+        <v>817</v>
+      </c>
+      <c r="E521" t="s">
+        <v>805</v>
+      </c>
+      <c r="F521">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>670</v>
+      </c>
+      <c r="B522" t="s">
+        <v>11</v>
+      </c>
+      <c r="C522" t="s">
+        <v>818</v>
+      </c>
+      <c r="D522" t="s">
+        <v>819</v>
+      </c>
+      <c r="E522" t="s">
+        <v>805</v>
+      </c>
+      <c r="F522">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>670</v>
+      </c>
+      <c r="B523" t="s">
+        <v>11</v>
+      </c>
+      <c r="C523" t="s">
+        <v>820</v>
+      </c>
+      <c r="D523" t="s">
+        <v>821</v>
+      </c>
+      <c r="E523" t="s">
+        <v>805</v>
+      </c>
+      <c r="F523">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>670</v>
+      </c>
+      <c r="B524" t="s">
+        <v>52</v>
+      </c>
+      <c r="C524" t="s">
+        <v>822</v>
+      </c>
+      <c r="D524" t="s">
+        <v>823</v>
+      </c>
+      <c r="E524" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>670</v>
+      </c>
+      <c r="B525" t="s">
+        <v>52</v>
+      </c>
+      <c r="C525" t="s">
+        <v>824</v>
+      </c>
+      <c r="D525" t="s">
+        <v>825</v>
+      </c>
+      <c r="E525" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>670</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526" t="s">
+        <v>826</v>
+      </c>
+      <c r="D526" t="s">
+        <v>827</v>
+      </c>
+      <c r="E526" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>670</v>
+      </c>
+      <c r="B527" t="s">
+        <v>11</v>
+      </c>
+      <c r="C527" t="s">
+        <v>829</v>
+      </c>
+      <c r="D527" t="s">
+        <v>830</v>
+      </c>
+      <c r="E527" t="s">
+        <v>828</v>
+      </c>
+      <c r="F527">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>670</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>831</v>
+      </c>
+      <c r="D528" t="s">
+        <v>832</v>
+      </c>
+      <c r="E528" t="s">
+        <v>833</v>
+      </c>
+      <c r="F528">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>670</v>
+      </c>
+      <c r="B529" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529" t="s">
+        <v>834</v>
+      </c>
+      <c r="D529" t="s">
+        <v>835</v>
+      </c>
+      <c r="E529" t="s">
+        <v>833</v>
+      </c>
+      <c r="F529">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>670</v>
+      </c>
+      <c r="B530" t="s">
+        <v>11</v>
+      </c>
+      <c r="C530" t="s">
+        <v>836</v>
+      </c>
+      <c r="D530" t="s">
+        <v>837</v>
+      </c>
+      <c r="E530" t="s">
+        <v>833</v>
+      </c>
+      <c r="F530">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>670</v>
+      </c>
+      <c r="B531" t="s">
+        <v>11</v>
+      </c>
+      <c r="C531" t="s">
+        <v>838</v>
+      </c>
+      <c r="D531" t="s">
+        <v>839</v>
+      </c>
+      <c r="E531" t="s">
+        <v>833</v>
+      </c>
+      <c r="F531">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>670</v>
+      </c>
+      <c r="B532" t="s">
+        <v>11</v>
+      </c>
+      <c r="C532" t="s">
+        <v>840</v>
+      </c>
+      <c r="D532" t="s">
+        <v>841</v>
+      </c>
+      <c r="E532" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>670</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D533" t="s">
+        <v>843</v>
+      </c>
+      <c r="E533" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>670</v>
+      </c>
+      <c r="B534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D534" t="s">
+        <v>843</v>
+      </c>
+      <c r="E534" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>670</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D535" t="s">
+        <v>843</v>
+      </c>
+      <c r="E535" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>670</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D536" t="s">
+        <v>843</v>
+      </c>
+      <c r="E536" t="s">
+        <v>847</v>
+      </c>
+      <c r="F536">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>670</v>
+      </c>
+      <c r="B537" t="s">
+        <v>11</v>
+      </c>
+      <c r="C537" t="s">
+        <v>848</v>
+      </c>
+      <c r="D537" t="s">
+        <v>849</v>
+      </c>
+      <c r="E537" t="s">
+        <v>844</v>
+      </c>
+      <c r="F537">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>670</v>
+      </c>
+      <c r="B538" t="s">
+        <v>11</v>
+      </c>
+      <c r="C538" t="s">
+        <v>850</v>
+      </c>
+      <c r="D538" t="s">
+        <v>851</v>
+      </c>
+      <c r="E538" t="s">
+        <v>844</v>
+      </c>
+      <c r="F538">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>670</v>
+      </c>
+      <c r="B539" t="s">
+        <v>11</v>
+      </c>
+      <c r="C539" t="s">
+        <v>852</v>
+      </c>
+      <c r="D539" t="s">
+        <v>853</v>
+      </c>
+      <c r="E539" t="s">
+        <v>844</v>
+      </c>
+      <c r="F539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>670</v>
+      </c>
+      <c r="B540" t="s">
+        <v>11</v>
+      </c>
+      <c r="C540" t="s">
+        <v>854</v>
+      </c>
+      <c r="D540" t="s">
+        <v>855</v>
+      </c>
+      <c r="E540" t="s">
+        <v>844</v>
+      </c>
+      <c r="F540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>670</v>
+      </c>
+      <c r="B541" t="s">
+        <v>11</v>
+      </c>
+      <c r="C541" t="s">
+        <v>856</v>
+      </c>
+      <c r="D541" t="s">
+        <v>857</v>
+      </c>
+      <c r="E541" t="s">
+        <v>845</v>
+      </c>
+      <c r="F541">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>670</v>
+      </c>
+      <c r="B542" t="s">
+        <v>11</v>
+      </c>
+      <c r="C542" t="s">
+        <v>858</v>
+      </c>
+      <c r="D542" t="s">
+        <v>859</v>
+      </c>
+      <c r="E542" t="s">
+        <v>845</v>
+      </c>
+      <c r="F542">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>670</v>
+      </c>
+      <c r="B543" t="s">
+        <v>11</v>
+      </c>
+      <c r="C543" t="s">
+        <v>860</v>
+      </c>
+      <c r="D543" t="s">
+        <v>861</v>
+      </c>
+      <c r="E543" t="s">
+        <v>846</v>
+      </c>
+      <c r="F543">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>670</v>
+      </c>
+      <c r="B544" t="s">
+        <v>11</v>
+      </c>
+      <c r="C544" t="s">
+        <v>862</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E544" t="s">
+        <v>847</v>
+      </c>
+      <c r="F544">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>670</v>
+      </c>
+      <c r="B545" t="s">
+        <v>11</v>
+      </c>
+      <c r="C545" t="s">
+        <v>864</v>
+      </c>
+      <c r="D545" t="s">
+        <v>865</v>
+      </c>
+      <c r="E545" t="s">
+        <v>847</v>
+      </c>
+      <c r="F545">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>670</v>
+      </c>
+      <c r="B546" t="s">
+        <v>11</v>
+      </c>
+      <c r="C546" t="s">
+        <v>866</v>
+      </c>
+      <c r="D546" t="s">
+        <v>867</v>
+      </c>
+      <c r="E546" t="s">
+        <v>847</v>
+      </c>
+      <c r="F546">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>868</v>
+      </c>
+      <c r="B547" t="s">
+        <v>7</v>
+      </c>
+      <c r="C547" t="s">
+        <v>869</v>
+      </c>
+      <c r="D547" t="s">
+        <v>870</v>
+      </c>
+      <c r="E547" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>868</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548" t="s">
+        <v>869</v>
+      </c>
+      <c r="D548" t="s">
+        <v>872</v>
+      </c>
+      <c r="E548" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>868</v>
+      </c>
+      <c r="B549" t="s">
+        <v>11</v>
+      </c>
+      <c r="C549" t="s">
+        <v>874</v>
+      </c>
+      <c r="D549" t="s">
+        <v>875</v>
+      </c>
+      <c r="E549" t="s">
+        <v>871</v>
+      </c>
+      <c r="F549">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>868</v>
+      </c>
+      <c r="B550" t="s">
+        <v>11</v>
+      </c>
+      <c r="C550" t="s">
+        <v>876</v>
+      </c>
+      <c r="D550" t="s">
+        <v>877</v>
+      </c>
+      <c r="E550" t="s">
+        <v>871</v>
+      </c>
+      <c r="F550">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>868</v>
+      </c>
+      <c r="B551" t="s">
+        <v>11</v>
+      </c>
+      <c r="C551" t="s">
+        <v>878</v>
+      </c>
+      <c r="D551" t="s">
+        <v>879</v>
+      </c>
+      <c r="E551" t="s">
+        <v>873</v>
+      </c>
+      <c r="F551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>868</v>
+      </c>
+      <c r="B552" t="s">
+        <v>7</v>
+      </c>
+      <c r="C552" t="s">
+        <v>880</v>
+      </c>
+      <c r="D552" t="s">
+        <v>872</v>
+      </c>
+      <c r="E552" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>868</v>
+      </c>
+      <c r="B553" t="s">
+        <v>7</v>
+      </c>
+      <c r="C553" t="s">
+        <v>880</v>
+      </c>
+      <c r="D553" t="s">
+        <v>872</v>
+      </c>
+      <c r="E553" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>868</v>
+      </c>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" t="s">
+        <v>880</v>
+      </c>
+      <c r="D554" t="s">
+        <v>872</v>
+      </c>
+      <c r="E554" t="s">
+        <v>883</v>
+      </c>
+      <c r="F554">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>868</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+      <c r="C555" t="s">
+        <v>880</v>
+      </c>
+      <c r="D555" t="s">
+        <v>872</v>
+      </c>
+      <c r="E555" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>868</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+      <c r="C556" t="s">
+        <v>880</v>
+      </c>
+      <c r="D556" t="s">
+        <v>872</v>
+      </c>
+      <c r="E556" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>868</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557" t="s">
+        <v>880</v>
+      </c>
+      <c r="D557" t="s">
+        <v>872</v>
+      </c>
+      <c r="E557" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>868</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" t="s">
+        <v>880</v>
+      </c>
+      <c r="D558" t="s">
+        <v>872</v>
+      </c>
+      <c r="E558" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>868</v>
+      </c>
+      <c r="B559" t="s">
+        <v>11</v>
+      </c>
+      <c r="C559" t="s">
+        <v>888</v>
+      </c>
+      <c r="D559" t="s">
+        <v>889</v>
+      </c>
+      <c r="E559" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>868</v>
+      </c>
+      <c r="B560" t="s">
+        <v>11</v>
+      </c>
+      <c r="C560" t="s">
+        <v>890</v>
+      </c>
+      <c r="D560" t="s">
+        <v>891</v>
+      </c>
+      <c r="E560" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>868</v>
+      </c>
+      <c r="B561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C561" t="s">
+        <v>892</v>
+      </c>
+      <c r="D561" t="s">
+        <v>893</v>
+      </c>
+      <c r="E561" t="s">
+        <v>882</v>
+      </c>
+      <c r="F561">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>868</v>
+      </c>
+      <c r="B562" t="s">
+        <v>11</v>
+      </c>
+      <c r="C562" t="s">
+        <v>894</v>
+      </c>
+      <c r="D562" t="s">
+        <v>895</v>
+      </c>
+      <c r="E562" t="s">
+        <v>883</v>
+      </c>
+      <c r="F562">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>868</v>
+      </c>
+      <c r="B563" t="s">
+        <v>11</v>
+      </c>
+      <c r="C563" t="s">
+        <v>896</v>
+      </c>
+      <c r="D563" t="s">
+        <v>897</v>
+      </c>
+      <c r="E563" t="s">
+        <v>884</v>
+      </c>
+      <c r="F563">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>868</v>
+      </c>
+      <c r="B564" t="s">
+        <v>11</v>
+      </c>
+      <c r="C564" t="s">
+        <v>894</v>
+      </c>
+      <c r="D564" t="s">
+        <v>895</v>
+      </c>
+      <c r="E564" t="s">
+        <v>885</v>
+      </c>
+      <c r="F564">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>868</v>
+      </c>
+      <c r="B565" t="s">
+        <v>11</v>
+      </c>
+      <c r="C565" t="s">
+        <v>898</v>
+      </c>
+      <c r="D565" t="s">
+        <v>899</v>
+      </c>
+      <c r="E565" t="s">
+        <v>885</v>
+      </c>
+      <c r="F565">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>868</v>
+      </c>
+      <c r="B566" t="s">
+        <v>11</v>
+      </c>
+      <c r="C566" t="s">
+        <v>900</v>
+      </c>
+      <c r="D566" t="s">
+        <v>901</v>
+      </c>
+      <c r="E566" t="s">
+        <v>886</v>
+      </c>
+      <c r="F566">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>868</v>
+      </c>
+      <c r="B567" t="s">
+        <v>11</v>
+      </c>
+      <c r="C567" t="s">
+        <v>902</v>
+      </c>
+      <c r="D567" t="s">
+        <v>903</v>
+      </c>
+      <c r="E567" t="s">
+        <v>887</v>
+      </c>
+      <c r="F567">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>868</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568" t="s">
+        <v>904</v>
+      </c>
+      <c r="D568" t="s">
+        <v>905</v>
+      </c>
+      <c r="E568" t="s">
+        <v>906</v>
+      </c>
+      <c r="F568">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>868</v>
+      </c>
+      <c r="B569" t="s">
+        <v>11</v>
+      </c>
+      <c r="C569" t="s">
+        <v>907</v>
+      </c>
+      <c r="D569" t="s">
+        <v>908</v>
+      </c>
+      <c r="E569" t="s">
+        <v>906</v>
+      </c>
+      <c r="F569">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>868</v>
+      </c>
+      <c r="B570" t="s">
+        <v>11</v>
+      </c>
+      <c r="C570" t="s">
+        <v>909</v>
+      </c>
+      <c r="D570" t="s">
+        <v>910</v>
+      </c>
+      <c r="E570" t="s">
+        <v>906</v>
+      </c>
+      <c r="F570">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>868</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571" t="s">
+        <v>911</v>
+      </c>
+      <c r="D571" t="s">
+        <v>912</v>
+      </c>
+      <c r="E571" t="s">
+        <v>913</v>
+      </c>
+      <c r="F571">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>868</v>
+      </c>
+      <c r="B572" t="s">
+        <v>11</v>
+      </c>
+      <c r="C572" t="s">
+        <v>914</v>
+      </c>
+      <c r="D572" t="s">
+        <v>915</v>
+      </c>
+      <c r="E572" t="s">
+        <v>913</v>
+      </c>
+      <c r="F572">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>868</v>
+      </c>
+      <c r="B573" t="s">
+        <v>11</v>
+      </c>
+      <c r="C573" t="s">
+        <v>916</v>
+      </c>
+      <c r="D573" t="s">
+        <v>917</v>
+      </c>
+      <c r="E573" t="s">
+        <v>913</v>
+      </c>
+      <c r="F573">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>868</v>
+      </c>
+      <c r="B574" t="s">
+        <v>11</v>
+      </c>
+      <c r="C574" t="s">
+        <v>918</v>
+      </c>
+      <c r="D574" t="s">
+        <v>919</v>
+      </c>
+      <c r="E574" t="s">
+        <v>913</v>
+      </c>
+      <c r="F574">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>868</v>
+      </c>
+      <c r="B575" t="s">
+        <v>7</v>
+      </c>
+      <c r="C575" t="s">
+        <v>920</v>
+      </c>
+      <c r="D575" t="s">
+        <v>921</v>
+      </c>
+      <c r="E575" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>868</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576" t="s">
+        <v>920</v>
+      </c>
+      <c r="D576" t="s">
+        <v>921</v>
+      </c>
+      <c r="E576" t="s">
+        <v>923</v>
+      </c>
+      <c r="F576">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>868</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577" t="s">
+        <v>920</v>
+      </c>
+      <c r="D577" t="s">
+        <v>921</v>
+      </c>
+      <c r="E577" t="s">
+        <v>924</v>
+      </c>
+      <c r="F577">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>868</v>
+      </c>
+      <c r="B578" t="s">
+        <v>7</v>
+      </c>
+      <c r="C578" t="s">
+        <v>920</v>
+      </c>
+      <c r="D578" t="s">
+        <v>921</v>
+      </c>
+      <c r="E578" t="s">
+        <v>925</v>
+      </c>
+      <c r="F578">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>868</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" t="s">
+        <v>920</v>
+      </c>
+      <c r="D579" t="s">
+        <v>921</v>
+      </c>
+      <c r="E579" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>868</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" t="s">
+        <v>920</v>
+      </c>
+      <c r="D580" t="s">
+        <v>921</v>
+      </c>
+      <c r="E580" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>868</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581" t="s">
+        <v>920</v>
+      </c>
+      <c r="D581" t="s">
+        <v>921</v>
+      </c>
+      <c r="E581" t="s">
+        <v>928</v>
+      </c>
+      <c r="F581">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>868</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C582" t="s">
+        <v>920</v>
+      </c>
+      <c r="D582" t="s">
+        <v>921</v>
+      </c>
+      <c r="E582" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>868</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>920</v>
+      </c>
+      <c r="D583" t="s">
+        <v>921</v>
+      </c>
+      <c r="E583" t="s">
+        <v>930</v>
+      </c>
+      <c r="F583">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>868</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584" t="s">
+        <v>920</v>
+      </c>
+      <c r="D584" t="s">
+        <v>921</v>
+      </c>
+      <c r="E584" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>868</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585" t="s">
+        <v>920</v>
+      </c>
+      <c r="D585" t="s">
+        <v>921</v>
+      </c>
+      <c r="E585" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>868</v>
+      </c>
+      <c r="B586" t="s">
+        <v>11</v>
+      </c>
+      <c r="C586" t="s">
+        <v>933</v>
+      </c>
+      <c r="D586" t="s">
+        <v>934</v>
+      </c>
+      <c r="E586" t="s">
+        <v>923</v>
+      </c>
+      <c r="F586">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>868</v>
+      </c>
+      <c r="B587" t="s">
+        <v>11</v>
+      </c>
+      <c r="C587" t="s">
+        <v>935</v>
+      </c>
+      <c r="D587" t="s">
+        <v>936</v>
+      </c>
+      <c r="E587" t="s">
+        <v>923</v>
+      </c>
+      <c r="F587">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>868</v>
+      </c>
+      <c r="B588" t="s">
+        <v>11</v>
+      </c>
+      <c r="C588" t="s">
+        <v>933</v>
+      </c>
+      <c r="D588" t="s">
+        <v>934</v>
+      </c>
+      <c r="E588" t="s">
+        <v>937</v>
+      </c>
+      <c r="F588">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>868</v>
+      </c>
+      <c r="B589" t="s">
+        <v>11</v>
+      </c>
+      <c r="C589" t="s">
+        <v>938</v>
+      </c>
+      <c r="D589" t="s">
+        <v>939</v>
+      </c>
+      <c r="E589" t="s">
+        <v>937</v>
+      </c>
+      <c r="F589">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>868</v>
+      </c>
+      <c r="B590" t="s">
+        <v>11</v>
+      </c>
+      <c r="C590" t="s">
+        <v>940</v>
+      </c>
+      <c r="D590" t="s">
+        <v>941</v>
+      </c>
+      <c r="E590" t="s">
+        <v>924</v>
+      </c>
+      <c r="F590">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>868</v>
+      </c>
+      <c r="B591" t="s">
+        <v>11</v>
+      </c>
+      <c r="C591" t="s">
+        <v>942</v>
+      </c>
+      <c r="D591" t="s">
+        <v>943</v>
+      </c>
+      <c r="E591" t="s">
+        <v>925</v>
+      </c>
+      <c r="F591">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>868</v>
+      </c>
+      <c r="B592" t="s">
+        <v>11</v>
+      </c>
+      <c r="C592" t="s">
+        <v>942</v>
+      </c>
+      <c r="D592" t="s">
+        <v>944</v>
+      </c>
+      <c r="E592" t="s">
+        <v>925</v>
+      </c>
+      <c r="F592">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>868</v>
+      </c>
+      <c r="B593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C593" t="s">
+        <v>945</v>
+      </c>
+      <c r="D593" t="s">
+        <v>946</v>
+      </c>
+      <c r="E593" t="s">
+        <v>925</v>
+      </c>
+      <c r="F593">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>868</v>
+      </c>
+      <c r="B594" t="s">
+        <v>11</v>
+      </c>
+      <c r="C594" t="s">
+        <v>947</v>
+      </c>
+      <c r="D594" t="s">
+        <v>948</v>
+      </c>
+      <c r="E594" t="s">
+        <v>926</v>
+      </c>
+      <c r="F594">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>868</v>
+      </c>
+      <c r="B595" t="s">
+        <v>11</v>
+      </c>
+      <c r="C595" t="s">
+        <v>949</v>
+      </c>
+      <c r="D595" t="s">
+        <v>950</v>
+      </c>
+      <c r="E595" t="s">
+        <v>927</v>
+      </c>
+      <c r="F595">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>868</v>
+      </c>
+      <c r="B596" t="s">
+        <v>11</v>
+      </c>
+      <c r="C596" t="s">
+        <v>951</v>
+      </c>
+      <c r="D596" t="s">
+        <v>952</v>
+      </c>
+      <c r="E596" t="s">
+        <v>927</v>
+      </c>
+      <c r="F596">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>868</v>
+      </c>
+      <c r="B597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597" t="s">
+        <v>953</v>
+      </c>
+      <c r="D597" t="s">
+        <v>954</v>
+      </c>
+      <c r="E597" t="s">
+        <v>927</v>
+      </c>
+      <c r="F597">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>868</v>
+      </c>
+      <c r="B598" t="s">
+        <v>11</v>
+      </c>
+      <c r="C598" t="s">
+        <v>955</v>
+      </c>
+      <c r="D598" t="s">
+        <v>956</v>
+      </c>
+      <c r="E598" t="s">
+        <v>928</v>
+      </c>
+      <c r="F598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>868</v>
+      </c>
+      <c r="B599" t="s">
+        <v>11</v>
+      </c>
+      <c r="C599" t="s">
+        <v>957</v>
+      </c>
+      <c r="D599" t="s">
+        <v>958</v>
+      </c>
+      <c r="E599" t="s">
+        <v>928</v>
+      </c>
+      <c r="F599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>868</v>
+      </c>
+      <c r="B600" t="s">
+        <v>11</v>
+      </c>
+      <c r="C600" t="s">
+        <v>959</v>
+      </c>
+      <c r="D600" t="s">
+        <v>960</v>
+      </c>
+      <c r="E600" t="s">
+        <v>928</v>
+      </c>
+      <c r="F600">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>868</v>
+      </c>
+      <c r="B601" t="s">
+        <v>11</v>
+      </c>
+      <c r="C601" t="s">
+        <v>961</v>
+      </c>
+      <c r="D601" t="s">
+        <v>962</v>
+      </c>
+      <c r="E601" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>868</v>
+      </c>
+      <c r="B602" t="s">
+        <v>11</v>
+      </c>
+      <c r="C602" t="s">
+        <v>935</v>
+      </c>
+      <c r="D602" t="s">
+        <v>936</v>
+      </c>
+      <c r="E602" t="s">
+        <v>930</v>
+      </c>
+      <c r="F602">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>868</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" t="s">
+        <v>963</v>
+      </c>
+      <c r="D603" t="s">
+        <v>964</v>
+      </c>
+      <c r="E603" t="s">
+        <v>931</v>
+      </c>
+      <c r="F603">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>868</v>
+      </c>
+      <c r="B604" t="s">
+        <v>11</v>
+      </c>
+      <c r="C604" t="s">
+        <v>965</v>
+      </c>
+      <c r="D604" t="s">
+        <v>966</v>
+      </c>
+      <c r="E604" t="s">
+        <v>932</v>
+      </c>
+      <c r="F604">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>868</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C605" t="s">
+        <v>967</v>
+      </c>
+      <c r="D605" t="s">
+        <v>968</v>
+      </c>
+      <c r="E605" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>868</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+      <c r="C606" t="s">
+        <v>967</v>
+      </c>
+      <c r="D606" t="s">
+        <v>968</v>
+      </c>
+      <c r="E606" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>868</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607" t="s">
+        <v>967</v>
+      </c>
+      <c r="D607" t="s">
+        <v>968</v>
+      </c>
+      <c r="E607" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>868</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C608" t="s">
+        <v>967</v>
+      </c>
+      <c r="D608" t="s">
+        <v>968</v>
+      </c>
+      <c r="E608" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>868</v>
+      </c>
+      <c r="B609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C609" t="s">
+        <v>973</v>
+      </c>
+      <c r="D609" t="s">
+        <v>974</v>
+      </c>
+      <c r="E609" t="s">
+        <v>969</v>
+      </c>
+      <c r="F609">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>868</v>
+      </c>
+      <c r="B610" t="s">
+        <v>11</v>
+      </c>
+      <c r="C610" t="s">
+        <v>975</v>
+      </c>
+      <c r="D610" t="s">
+        <v>976</v>
+      </c>
+      <c r="E610" t="s">
+        <v>970</v>
+      </c>
+      <c r="F610">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>868</v>
+      </c>
+      <c r="B611" t="s">
+        <v>11</v>
+      </c>
+      <c r="C611" t="s">
+        <v>977</v>
+      </c>
+      <c r="D611" t="s">
+        <v>978</v>
+      </c>
+      <c r="E611" t="s">
+        <v>970</v>
+      </c>
+      <c r="F611">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>868</v>
+      </c>
+      <c r="B612" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" t="s">
+        <v>979</v>
+      </c>
+      <c r="D612" t="s">
+        <v>980</v>
+      </c>
+      <c r="E612" t="s">
+        <v>971</v>
+      </c>
+      <c r="F612">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>868</v>
+      </c>
+      <c r="B613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613" t="s">
+        <v>981</v>
+      </c>
+      <c r="D613" t="s">
+        <v>982</v>
+      </c>
+      <c r="E613" t="s">
+        <v>972</v>
+      </c>
+      <c r="F613">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>868</v>
+      </c>
+      <c r="B614" t="s">
+        <v>11</v>
+      </c>
+      <c r="C614" t="s">
+        <v>983</v>
+      </c>
+      <c r="D614" t="s">
+        <v>984</v>
+      </c>
+      <c r="E614" t="s">
+        <v>972</v>
+      </c>
+      <c r="F614">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>868</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615" t="s">
+        <v>985</v>
+      </c>
+      <c r="D615" t="s">
+        <v>986</v>
+      </c>
+      <c r="E615" t="s">
+        <v>987</v>
+      </c>
+      <c r="F615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>868</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" t="s">
+        <v>985</v>
+      </c>
+      <c r="D616" t="s">
+        <v>986</v>
+      </c>
+      <c r="E616" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>868</v>
+      </c>
+      <c r="B617" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617" t="s">
+        <v>985</v>
+      </c>
+      <c r="D617" t="s">
+        <v>986</v>
+      </c>
+      <c r="E617" t="s">
+        <v>989</v>
+      </c>
+      <c r="F617">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>868</v>
+      </c>
+      <c r="B618" t="s">
+        <v>11</v>
+      </c>
+      <c r="C618" t="s">
+        <v>990</v>
+      </c>
+      <c r="D618" t="s">
+        <v>991</v>
+      </c>
+      <c r="E618" t="s">
+        <v>987</v>
+      </c>
+      <c r="F618">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>868</v>
+      </c>
+      <c r="B619" t="s">
+        <v>11</v>
+      </c>
+      <c r="C619" t="s">
+        <v>992</v>
+      </c>
+      <c r="D619" t="s">
+        <v>993</v>
+      </c>
+      <c r="E619" t="s">
+        <v>987</v>
+      </c>
+      <c r="F619">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>868</v>
+      </c>
+      <c r="B620" t="s">
+        <v>11</v>
+      </c>
+      <c r="C620" t="s">
+        <v>994</v>
+      </c>
+      <c r="D620" t="s">
+        <v>995</v>
+      </c>
+      <c r="E620" t="s">
+        <v>987</v>
+      </c>
+      <c r="F620">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>868</v>
+      </c>
+      <c r="B621" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621" t="s">
+        <v>994</v>
+      </c>
+      <c r="D621" t="s">
+        <v>995</v>
+      </c>
+      <c r="E621" t="s">
+        <v>987</v>
+      </c>
+      <c r="F621">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>868</v>
+      </c>
+      <c r="B622" t="s">
+        <v>11</v>
+      </c>
+      <c r="C622" t="s">
+        <v>994</v>
+      </c>
+      <c r="D622" t="s">
+        <v>995</v>
+      </c>
+      <c r="E622" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>868</v>
+      </c>
+      <c r="B623" t="s">
+        <v>11</v>
+      </c>
+      <c r="C623" t="s">
+        <v>994</v>
+      </c>
+      <c r="D623" t="s">
+        <v>995</v>
+      </c>
+      <c r="E623" t="s">
+        <v>989</v>
+      </c>
+      <c r="F623">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>868</v>
+      </c>
+      <c r="B624" t="s">
+        <v>11</v>
+      </c>
+      <c r="C624" t="s">
+        <v>996</v>
+      </c>
+      <c r="D624" t="s">
+        <v>997</v>
+      </c>
+      <c r="E624" t="s">
+        <v>989</v>
+      </c>
+      <c r="F624">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>868</v>
+      </c>
+      <c r="B625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C625" t="s">
+        <v>998</v>
+      </c>
+      <c r="D625" t="s">
+        <v>999</v>
+      </c>
+      <c r="E625" t="s">
+        <v>989</v>
+      </c>
+      <c r="F625">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>868</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F626">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>868</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F627">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>868</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>868</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>868</v>
+      </c>
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F630">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>868</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F631">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>868</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F632">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>868</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E633" t="s">
+        <v>469</v>
+      </c>
+      <c r="F633">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>868</v>
+      </c>
+      <c r="B634" t="s">
+        <v>11</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F634">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>868</v>
+      </c>
+      <c r="B635" t="s">
+        <v>11</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F635">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>868</v>
+      </c>
+      <c r="B636" t="s">
+        <v>11</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F636">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>868</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F637">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>868</v>
+      </c>
+      <c r="B638" t="s">
+        <v>11</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F638">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>868</v>
+      </c>
+      <c r="B639" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F639">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>868</v>
+      </c>
+      <c r="B640" t="s">
+        <v>11</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F640">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>868</v>
+      </c>
+      <c r="B641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F641">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>868</v>
+      </c>
+      <c r="B642" t="s">
+        <v>11</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F642">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>868</v>
+      </c>
+      <c r="B643" t="s">
+        <v>11</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F643">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>868</v>
+      </c>
+      <c r="B644" t="s">
+        <v>11</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F644">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>868</v>
+      </c>
+      <c r="B645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E645" t="s">
+        <v>469</v>
+      </c>
+      <c r="F645">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B646" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F646">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B647" t="s">
+        <v>7</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F647">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B648" t="s">
+        <v>7</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F649">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B651" t="s">
+        <v>11</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F651">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B652" t="s">
+        <v>11</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F652">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F653">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B654" t="s">
+        <v>11</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F654">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B655" t="s">
+        <v>11</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F655">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B656" t="s">
+        <v>11</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F656">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B657" t="s">
+        <v>11</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F657">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B658" t="s">
+        <v>11</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F658">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B659" t="s">
+        <v>11</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F659">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F660">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B661" t="s">
+        <v>11</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F661">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F662">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F663">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F665">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F667">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B668" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B670" t="s">
+        <v>7</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F670">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B672" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F672">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F673">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B674" t="s">
+        <v>11</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F674">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B675" t="s">
+        <v>11</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F675">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B676" t="s">
+        <v>11</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F676">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B677" t="s">
+        <v>11</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F677">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B678" t="s">
+        <v>11</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F678">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B679" t="s">
+        <v>11</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F679">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B680" t="s">
+        <v>11</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F680">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E681" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F681">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B682" t="s">
+        <v>11</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F682">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B683" t="s">
+        <v>11</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E683" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F683">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B684" t="s">
+        <v>11</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E684" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F684">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E685" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F685">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B686" t="s">
+        <v>11</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F686">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B687" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F687">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B688" t="s">
+        <v>11</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F688">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B689" t="s">
+        <v>11</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F689">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B690" t="s">
+        <v>11</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F690">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B691" t="s">
+        <v>11</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F691">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B692" t="s">
+        <v>11</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F692">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F693">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B694" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F694">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B695" t="s">
+        <v>11</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B696" t="s">
+        <v>7</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F696">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B697" t="s">
+        <v>7</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F697">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B698" t="s">
+        <v>7</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B700" t="s">
+        <v>7</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F700">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F701">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B702" t="s">
+        <v>11</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F702">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B703" t="s">
+        <v>11</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B704" t="s">
+        <v>11</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F705">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B706" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F706">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B707" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E707" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F707">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B708" t="s">
+        <v>11</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F708">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B709" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E709" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F709">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B710" t="s">
+        <v>11</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F710">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B711" t="s">
+        <v>11</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F711">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B712" t="s">
+        <v>11</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F712">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B713" t="s">
+        <v>11</v>
+      </c>
+      <c r="C713" t="s">
+        <v>744</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F713">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B714" t="s">
+        <v>11</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F714">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B715" t="s">
+        <v>7</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B716" t="s">
+        <v>7</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B717" t="s">
+        <v>7</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B718" t="s">
+        <v>11</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F718">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B719" t="s">
+        <v>11</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F719">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B720" t="s">
+        <v>11</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F720">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B721" t="s">
+        <v>11</v>
+      </c>
+      <c r="C721" t="s">
+        <v>744</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B722" t="s">
+        <v>11</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F722">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B723" t="s">
+        <v>7</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F723">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B724" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F724">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B725" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F725">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B726" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B727" t="s">
+        <v>11</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F727">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B728" t="s">
+        <v>11</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F728">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F728" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>